--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="88">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -445,183 +445,49 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ロール</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>表示名</t>
+    <t>todo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cake2_todo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todos</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>完了日</t>
+    <rPh sb="0" eb="3">
+      <t>カンリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>completed</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>履歴</t>
     <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>displayname</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todo</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>items</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>フラグ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>コントローラ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>アクション</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>LOG</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>パラメータ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>accesslogs</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>controllername</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>actionname</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>logged</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>cake2_todo</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todos</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>histories</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1196,7 +1062,252 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1204,335 +1315,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,8 +1332,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="1"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="36"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="35"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1845,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1870,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -1892,134 +1674,112 @@
       <c r="A3" s="44"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D4" s="30" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C6 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="37" t="str">
-        <f t="shared" ref="I7:I12" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
-        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
+      <c r="I7" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="16">
-        <v>128</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
       <c r="I8" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT 'name',</v>
+        <f t="shared" ref="I8" si="0">IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>128</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
       <c r="I9" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I9:I11" si="1">IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; "COMMENT '"&amp; B9 &amp;"'," &amp; IF(A9="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>12</v>
@@ -2029,111 +1789,108 @@
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
       <c r="I10" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="1"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>`deleted` TINYINT DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="1"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="I13" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D15" s="30" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C16 &amp; "` ("</f>
-        <v>CREATE TABLE `users` (</v>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
+        <v>CREATE TABLE `histories` (</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="27" t="s">
-        <v>4</v>
+      <c r="I17" s="37" t="str">
+        <f t="shared" ref="I17:I20" si="2">IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2141,651 +1898,648 @@
         <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="16">
-        <v>50</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
       <c r="I18" s="37" t="str">
-        <f t="shared" ref="I18:I19" si="1">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
-        <v>`username` VARCHAR(50) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="2"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16">
-        <v>50</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>87</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>`password` VARCHAR(50) NOT NULL COMMENT 'パスワード',</v>
+        <f t="shared" si="2"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="16">
-        <v>50</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>88</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="37" t="str">
-        <f t="shared" ref="I20" si="2">IF(A20="","","/* ") &amp; "`" &amp; C20 &amp; "` " &amp; D20 &amp; IF(E20&gt;0,"(" &amp; E20 &amp; ") "," ") &amp; IF(F20&lt;&gt;"","NOT NULL ","") &amp; IF(G20="","","DEFAULT '" &amp; G20 &amp; "' ") &amp; "COMMENT '"&amp; B20 &amp;"'," &amp; IF(A20="",""," */")</f>
-        <v>`displayname` VARCHAR(50) NOT NULL COMMENT '表示名',</v>
+        <f t="shared" si="2"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="16">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="37" t="str">
-        <f t="shared" ref="I21:I25" si="3">IF(A21="","","/* ") &amp; "`" &amp; C21 &amp; "` " &amp; D21 &amp; IF(E21&gt;0,"(" &amp; E21 &amp; ") "," ") &amp; IF(F21&lt;&gt;"","NOT NULL ","") &amp; IF(G21="","","DEFAULT '" &amp; G21 &amp; "' ") &amp; "COMMENT '"&amp; B21 &amp;"'," &amp; IF(A21="",""," */")</f>
-        <v>`role` VARCHAR(20) NOT NULL COMMENT 'ロール',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+      <c r="A21" s="22"/>
+      <c r="I21" s="38" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`deleted` TINYINT DEFAULT '0' COMMENT '削除フラグ',</v>
+      <c r="D23" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+        <v>CREATE TABLE `trans` (</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
       <c r="B25" s="15" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      <c r="I25" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="I26" s="38" t="s">
-        <v>3</v>
+      <c r="B26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="37" t="str">
+        <f>IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="37" t="str">
+        <f t="shared" ref="I27" si="3">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D28" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C29 &amp; "` ("</f>
-        <v>CREATE TABLE `accesslogs` (</v>
+      <c r="B28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="37" t="str">
+        <f t="shared" ref="I28" si="4">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
+        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="37" t="str">
+        <f t="shared" ref="I29:I34" si="5">IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
+        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="27" t="s">
-        <v>4</v>
+      <c r="I30" s="37" t="str">
+        <f t="shared" ref="I30" si="6">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
+        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
       <c r="H31" s="17"/>
       <c r="I31" s="37" t="str">
-        <f>IF(A31="","","/* ") &amp; "`" &amp; C31 &amp; "` " &amp; D31 &amp; IF(E31&gt;0,"(" &amp; E31 &amp; ") "," ") &amp; IF(F31&lt;&gt;"","NOT NULL ","") &amp; IF(G31="","","DEFAULT '" &amp; G31 &amp; "' ") &amp; "COMMENT '"&amp; B31 &amp;"'," &amp; IF(A31="",""," */")</f>
-        <v>`logged` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I31" si="7">IF(A31="","","/* ") &amp; "`" &amp; C31 &amp; "` " &amp; D31 &amp; IF(E31&gt;0,"(" &amp; E31 &amp; ") "," ") &amp; IF(F31&lt;&gt;"","NOT NULL ","") &amp; IF(G31="","","DEFAULT '" &amp; G31 &amp; "' ") &amp; "COMMENT '"&amp; B31 &amp;"'," &amp; IF(A31="",""," */")</f>
+        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="16">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
       <c r="I32" s="37" t="str">
-        <f t="shared" ref="I32:I35" si="4">IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; "COMMENT '"&amp; B32 &amp;"'," &amp; IF(A32="",""," */")</f>
-        <v>`controllername` VARCHAR(32) COMMENT 'コントローラ',</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="16">
-        <v>32</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
       <c r="I33" s="37" t="str">
-        <f t="shared" si="4"/>
-        <v>`actionname` VARCHAR(32) COMMENT 'アクション',</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
       <c r="I34" s="37" t="str">
-        <f t="shared" si="4"/>
-        <v>`user_id` INT COMMENT 'ユーザ',</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="16">
+        <f t="shared" si="5"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I35" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D37" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C38 &amp; "` ("</f>
+        <v>CREATE TABLE `items` (</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="16">
         <v>128</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="37" t="str">
-        <f t="shared" si="4"/>
-        <v>`url` VARCHAR(128) COMMENT 'url',</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="37" t="str">
-        <f t="shared" ref="I36" si="5">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
-        <v>`param` TEXT COMMENT 'パラメータ',</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="I37" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D39" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="F40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C40 &amp; "` ("</f>
-        <v>CREATE TABLE `items` (</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="37" t="str">
+        <f t="shared" ref="I40:I46" si="8">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
       <c r="H41" s="17"/>
-      <c r="I41" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I41" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="16">
-        <v>100</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="37" t="str">
-        <f t="shared" ref="I42:I46" si="6">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
-        <v>`title` VARCHAR(100) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
       <c r="I43" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>`description` TEXT COMMENT '詳細',</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="16">
-        <v>0</v>
-      </c>
+      <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>`flag` TINYINT DEFAULT '0' COMMENT 'フラグ',</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
+        <f t="shared" si="8"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
+        <f t="shared" si="8"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
       <c r="I46" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="I47" s="38" t="s">
+        <f t="shared" si="8"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="15"/>
+      <c r="C47" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="37" t="str">
+        <f>IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
+        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="15"/>
+      <c r="C48" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="37" t="str">
+        <f>IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
+        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I49" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D49" s="30" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D51" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E51" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F51" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G51" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H51" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C50 &amp; "` ("</f>
-        <v>CREATE TABLE `trans` (</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="37" t="str">
-        <f>IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; "COMMENT '"&amp; B52 &amp;"'," &amp; IF(A52="",""," */")</f>
-        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C52 &amp; "` ("</f>
+        <v>CREATE TABLE `subitems` (</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="15" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="37" t="str">
-        <f t="shared" ref="I53" si="7">IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; "COMMENT '"&amp; B53 &amp;"'," &amp; IF(A53="",""," */")</f>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+      <c r="I53" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E54" s="16">
+        <v>128</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
       <c r="I54" s="37" t="str">
-        <f t="shared" ref="I54" si="8">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
-        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
+        <f t="shared" ref="I54:I60" si="9">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>18</v>
@@ -2799,65 +2553,57 @@
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="37" t="str">
-        <f t="shared" ref="I55:I60" si="9">IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; "COMMENT '"&amp; B55 &amp;"'," &amp; IF(A55="",""," */")</f>
-        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
+        <f t="shared" si="9"/>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="37" t="str">
-        <f t="shared" ref="I56" si="10">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
-        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
+        <f t="shared" si="9"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="16">
-        <v>0</v>
-      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="17"/>
       <c r="I57" s="37" t="str">
-        <f t="shared" ref="I57" si="11">IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; "COMMENT '"&amp; B57 &amp;"'," &amp; IF(A57="",""," */")</f>
-        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
+        <f t="shared" si="9"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -2865,34 +2611,38 @@
       <c r="H58" s="17"/>
       <c r="I58" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="16">
         <v>0</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="15" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>12</v>
@@ -2903,7 +2653,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
@@ -2931,10 +2681,10 @@
     </row>
     <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B64" s="33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="35"/>
@@ -2943,10 +2693,10 @@
       <c r="H64" s="36"/>
       <c r="I64" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
-        <v>CREATE TABLE `items` (</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+        <v>CREATE TABLE `taxtables` (</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
         <v>17</v>
       </c>
@@ -2985,34 +2735,34 @@
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="37" t="str">
-        <f t="shared" ref="I66:I72" si="12">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <f t="shared" ref="I66:I72" si="10">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F67" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="16">
-        <v>0</v>
-      </c>
+      <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
         <v>43</v>
       </c>
@@ -3027,11 +2777,12 @@
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="22"/>
       <c r="B69" s="15" t="s">
         <v>0</v>
       </c>
@@ -3046,11 +2797,12 @@
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="22"/>
       <c r="B70" s="15" t="s">
         <v>1</v>
       </c>
@@ -3065,11 +2817,12 @@
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="22"/>
       <c r="B71" s="15" t="s">
         <v>32</v>
       </c>
@@ -3081,840 +2834,290 @@
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G71" s="16">
         <v>0</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="22"/>
       <c r="B72" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="15"/>
-      <c r="C73" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="22"/>
+      <c r="I73" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D76" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="16">
-        <v>0</v>
-      </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="37" t="str">
-        <f>IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; "COMMENT '"&amp; B73 &amp;"'," &amp; IF(A73="",""," */")</f>
-        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="15"/>
-      <c r="C74" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16" t="s">
+      <c r="G76" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C77 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="16">
+        <v>128</v>
+      </c>
+      <c r="F79" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="16">
-        <v>0</v>
-      </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="37" t="str">
-        <f>IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
-        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I75" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D77" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B78" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
-        <v>CREATE TABLE `subitems` (</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I79" s="37" t="str">
+        <f t="shared" ref="I79:I80" si="11">IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; "COMMENT '"&amp; B79 &amp;"'," &amp; IF(A79="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="16">
-        <v>128</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E80" s="16"/>
       <c r="F80" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="G80" s="16">
+        <v>1</v>
+      </c>
       <c r="H80" s="17"/>
       <c r="I80" s="37" t="str">
-        <f t="shared" ref="I80:I86" si="13">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="11"/>
+        <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" s="16">
-        <v>0</v>
-      </c>
-      <c r="H81" s="17"/>
-      <c r="I81" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="16">
-        <v>0</v>
-      </c>
-      <c r="H85" s="17"/>
-      <c r="I85" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I87" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D89" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="30"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C90 &amp; "` ("</f>
-        <v>CREATE TABLE `taxtables` (</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="16">
-        <v>128</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="37" t="str">
-        <f t="shared" ref="I92:I98" si="14">IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; "COMMENT '"&amp; B92 &amp;"'," &amp; IF(A92="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="22"/>
-      <c r="B95" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="22"/>
-      <c r="B96" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="22"/>
-      <c r="B97" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="16">
-        <v>0</v>
-      </c>
-      <c r="H97" s="17"/>
-      <c r="I97" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="22"/>
-      <c r="B98" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="22"/>
-      <c r="I99" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D102" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B103" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C103 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="16">
-        <v>128</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="37" t="str">
-        <f t="shared" ref="I105:I106" si="15">IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; "COMMENT '"&amp; B105 &amp;"'," &amp; IF(A105="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="16">
-        <v>1</v>
-      </c>
-      <c r="H106" s="17"/>
-      <c r="I106" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="22"/>
-      <c r="I107" s="38" t="s">
+      <c r="A81" s="22"/>
+      <c r="I81" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B83:B88 B58:B66 B69:B73 B75:B76 B1:B3 B55 B51:B53 B101 B49 B31 B38 B26:B27 B45:B47 B9:B10 B107:B1048576 B12">
-    <cfRule type="expression" dxfId="48" priority="86">
+  <conditionalFormatting sqref="B57:B62 B32:B40 B43:B47 B49:B50 B29 B25:B27 B75 B23 B1:B4 B10:B12 B81:B1048576">
+    <cfRule type="expression" dxfId="31" priority="92">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B46">
+    <cfRule type="expression" dxfId="30" priority="82">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="29" priority="70">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B54">
+    <cfRule type="expression" dxfId="28" priority="69">
+      <formula>A51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B60">
+    <cfRule type="expression" dxfId="27" priority="68">
+      <formula>A59&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="26" priority="65">
+      <formula>A56&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="25" priority="64">
+      <formula>A55&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B66 B69:B74">
+    <cfRule type="expression" dxfId="24" priority="63">
+      <formula>A63&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="expression" dxfId="47" priority="76">
+    <cfRule type="expression" dxfId="23" priority="62">
       <formula>A71&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="22" priority="60">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="21" priority="61">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="46" priority="64">
+    <cfRule type="expression" dxfId="20" priority="59">
       <formula>A68&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B80">
-    <cfRule type="expression" dxfId="45" priority="63">
-      <formula>A77&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="19" priority="57">
+      <formula>A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B86">
-    <cfRule type="expression" dxfId="44" priority="62">
-      <formula>A85&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="18" priority="58">
+      <formula>A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="43" priority="59">
-      <formula>A82&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="17" priority="56">
+      <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="42" priority="58">
-      <formula>A81&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="16" priority="55">
+      <formula>A48&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B92 B95:B100">
-    <cfRule type="expression" dxfId="41" priority="57">
-      <formula>A89&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="15" priority="54">
+      <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B98">
-    <cfRule type="expression" dxfId="40" priority="56">
-      <formula>A97&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B76:B79">
+    <cfRule type="expression" dxfId="14" priority="53">
+      <formula>A76&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="39" priority="54">
-      <formula>A93&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="13" priority="50">
+      <formula>A80&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="38" priority="55">
-      <formula>A93&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="12" priority="51">
+      <formula>A80&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="37" priority="53">
-      <formula>A94&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="11" priority="48">
+      <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="36" priority="51">
-      <formula>A57&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B5:B7 B9">
+    <cfRule type="expression" dxfId="10" priority="36">
+      <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="35" priority="52">
-      <formula>A57&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="9" priority="26">
+      <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="34" priority="50">
-      <formula>A54&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="33" priority="49">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="32" priority="48">
-      <formula>A56&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B105">
-    <cfRule type="expression" dxfId="31" priority="47">
-      <formula>A102&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="30" priority="44">
-      <formula>A106&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="29" priority="45">
-      <formula>A106&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="28" priority="42">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B18">
-    <cfRule type="expression" dxfId="27" priority="40">
-      <formula>A15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="26" priority="38">
+  <conditionalFormatting sqref="B19:B21">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="25" priority="39">
-      <formula>A19&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B14:B16 B18">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="24" priority="36">
-      <formula>A21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>A21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="expression" dxfId="22" priority="35">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="expression" dxfId="21" priority="34">
-      <formula>A24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="20" priority="32">
-      <formula>A20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="19" priority="33">
-      <formula>A20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B42">
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="17" priority="28">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="16" priority="29">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="15" priority="22">
-      <formula>A44&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="14" priority="23">
-      <formula>A44&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B48">
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>A37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B30 B32">
-    <cfRule type="expression" dxfId="12" priority="19">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>A33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>A33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>A13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>A11&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="95">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -488,6 +488,33 @@
   </si>
   <si>
     <t>histories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ノート</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>xyzhw</t>
+  </si>
+  <si>
+    <t>xyzhw</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>color</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1627,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1979,11 +2006,11 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>65</v>
+      <c r="B24" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
@@ -1992,7 +2019,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
-        <v>CREATE TABLE `trans` (</v>
+        <v>CREATE TABLE `notes` (</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2017,282 +2044,280 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="37" t="str">
-        <f>IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
-        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+        <f t="shared" ref="I26:I31" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E27" s="16">
+        <v>64</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="17"/>
       <c r="I27" s="37" t="str">
-        <f t="shared" ref="I27" si="3">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+        <f t="shared" si="3"/>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E28" s="16">
+        <v>256</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
       <c r="I28" s="37" t="str">
-        <f t="shared" ref="I28" si="4">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
-        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
+        <f t="shared" si="3"/>
+        <v>`text` VARCHAR(256) COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="15" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E29" s="16">
+        <v>32</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="17"/>
       <c r="I29" s="37" t="str">
-        <f t="shared" ref="I29:I34" si="5">IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
-        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
+        <f t="shared" si="3"/>
+        <v>`xyzhw` VARCHAR(32) COMMENT 'xyzhw',</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E30" s="16">
+        <v>32</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="17"/>
       <c r="I30" s="37" t="str">
-        <f t="shared" ref="I30" si="6">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
-        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
+        <f t="shared" si="3"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="17"/>
       <c r="I31" s="37" t="str">
-        <f t="shared" ref="I31" si="7">IF(A31="","","/* ") &amp; "`" &amp; C31 &amp; "` " &amp; D31 &amp; IF(E31&gt;0,"(" &amp; E31 &amp; ") "," ") &amp; IF(F31&lt;&gt;"","NOT NULL ","") &amp; IF(G31="","","DEFAULT '" &amp; G31 &amp; "' ") &amp; "COMMENT '"&amp; B31 &amp;"'," &amp; IF(A31="",""," */")</f>
-        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
+        <f t="shared" si="3"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
+      <c r="A32" s="22"/>
+      <c r="I32" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D34" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+        <v>CREATE TABLE `trans` (</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="37" t="str">
+        <f>IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I35" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D37" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C38 &amp; "` ("</f>
-        <v>CREATE TABLE `items` (</v>
+      <c r="H38" s="17"/>
+      <c r="I38" s="37" t="str">
+        <f t="shared" ref="I38" si="4">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="27" t="s">
-        <v>4</v>
+      <c r="I39" s="37" t="str">
+        <f t="shared" ref="I39" si="5">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
+        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="16">
-        <v>128</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
       <c r="H40" s="17"/>
       <c r="I40" s="37" t="str">
-        <f t="shared" ref="I40:I46" si="8">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I40:I45" si="6">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
+        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>18</v>
@@ -2306,54 +2331,58 @@
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
+        <f t="shared" ref="I41" si="7">IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; "COMMENT '"&amp; B41 &amp;"'," &amp; IF(A41="",""," */")</f>
+        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="F42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
       <c r="H42" s="17"/>
       <c r="I42" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f t="shared" ref="I42" si="8">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
+        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
       <c r="I43" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="6"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>12</v>
@@ -2363,228 +2392,224 @@
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="6"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="6"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="15"/>
-      <c r="C47" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="I46" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D48" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C49 &amp; "` ("</f>
+        <v>CREATE TABLE `items` (</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="16">
+        <v>128</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="37" t="str">
+        <f t="shared" ref="I51:I57" si="9">IF(A51="","","/* ") &amp; "`" &amp; C51 &amp; "` " &amp; D51 &amp; IF(E51&gt;0,"(" &amp; E51 &amp; ") "," ") &amp; IF(F51&lt;&gt;"","NOT NULL ","") &amp; IF(G51="","","DEFAULT '" &amp; G51 &amp; "' ") &amp; "COMMENT '"&amp; B51 &amp;"'," &amp; IF(A51="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G52" s="16">
         <v>0</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="37" t="str">
-        <f>IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
-        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="15"/>
-      <c r="C48" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="16">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="37" t="str">
-        <f>IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
-        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I49" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D51" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B52" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C52 &amp; "` ("</f>
-        <v>CREATE TABLE `subitems` (</v>
+      <c r="H52" s="17"/>
+      <c r="I52" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="27" t="s">
-        <v>4</v>
+      <c r="I53" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="16">
-        <v>128</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
       <c r="I54" s="37" t="str">
-        <f t="shared" ref="I54:I60" si="9">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="9"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="16">
-        <v>0</v>
-      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="17"/>
       <c r="I55" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0</v>
+      </c>
       <c r="H56" s="17"/>
       <c r="I56" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2592,185 +2617,185 @@
       <c r="H57" s="17"/>
       <c r="I57" s="37" t="str">
         <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>13</v>
+      <c r="B58" s="15"/>
+      <c r="C58" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="F58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
       <c r="H58" s="17"/>
       <c r="I58" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f>IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>33</v>
+      <c r="B59" s="15"/>
+      <c r="C59" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f>IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
+        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I61" s="38" t="s">
+      <c r="I60" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D63" s="30" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D62" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E62" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F62" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G62" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H62" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B64" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
-        <v>CREATE TABLE `taxtables` (</v>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B63" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
+        <v>CREATE TABLE `subitems` (</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E65" s="16">
+        <v>128</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="27" t="s">
-        <v>4</v>
+      <c r="I65" s="37" t="str">
+        <f t="shared" ref="I65:I71" si="10">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="16">
-        <v>128</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="G66" s="16">
+        <v>0</v>
+      </c>
       <c r="H66" s="17"/>
       <c r="I66" s="37" t="str">
-        <f t="shared" ref="I66:I72" si="10">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="10"/>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -2778,16 +2803,15 @@
       <c r="H68" s="17"/>
       <c r="I68" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
       <c r="B69" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>12</v>
@@ -2798,326 +2822,528 @@
       <c r="H69" s="17"/>
       <c r="I69" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="22"/>
       <c r="B70" s="15" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="16">
+        <v>0</v>
+      </c>
       <c r="H70" s="17"/>
       <c r="I70" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
       <c r="B71" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E71" s="16"/>
-      <c r="F71" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="16">
-        <v>0</v>
-      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22"/>
-      <c r="B72" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22"/>
-      <c r="I73" s="38" t="s">
+      <c r="I72" s="38" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D74" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B75" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C75 &amp; "` ("</f>
+        <v>CREATE TABLE `taxtables` (</v>
+      </c>
+    </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D76" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="31" t="s">
+      <c r="B76" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="16">
+        <v>128</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="30"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B77" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C77 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="37" t="str">
+        <f t="shared" ref="I77:I83" si="11">IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; "COMMENT '"&amp; B77 &amp;"'," &amp; IF(A77="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="27" t="s">
-        <v>4</v>
+      <c r="I78" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="16">
-        <v>128</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="37" t="str">
-        <f t="shared" ref="I79:I80" si="11">IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; "COMMENT '"&amp; B79 &amp;"'," &amp; IF(A79="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="11"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="22"/>
       <c r="B80" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E80" s="16"/>
-      <c r="F80" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="16">
-        <v>1</v>
-      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="22"/>
-      <c r="I81" s="38" t="s">
+      <c r="B81" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="22"/>
+      <c r="B82" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="17"/>
+      <c r="I82" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="22"/>
+      <c r="B83" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="22"/>
+      <c r="I84" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D87" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B88" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C88 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="16">
+        <v>128</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="37" t="str">
+        <f t="shared" ref="I90:I91" si="12">IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; "COMMENT '"&amp; B90 &amp;"'," &amp; IF(A90="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="16">
+        <v>1</v>
+      </c>
+      <c r="H91" s="17"/>
+      <c r="I91" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="22"/>
+      <c r="I92" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B57:B62 B32:B40 B43:B47 B49:B50 B29 B25:B27 B75 B23 B1:B4 B10:B12 B81:B1048576">
-    <cfRule type="expression" dxfId="31" priority="92">
+  <conditionalFormatting sqref="B68:B73 B43:B51 B54:B58 B60:B61 B40 B36:B38 B86 B34 B1:B4 B10:B12 B31:B32 B92:B1048576">
+    <cfRule type="expression" dxfId="30" priority="96">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="30" priority="82">
-      <formula>A45&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B56:B57">
+    <cfRule type="expression" dxfId="29" priority="86">
+      <formula>A56&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="28" priority="74">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B65">
+    <cfRule type="expression" dxfId="27" priority="73">
+      <formula>A62&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:B71">
+    <cfRule type="expression" dxfId="26" priority="72">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="25" priority="69">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="24" priority="68">
+      <formula>A66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B77 B80:B85">
+    <cfRule type="expression" dxfId="23" priority="67">
+      <formula>A74&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B83">
+    <cfRule type="expression" dxfId="22" priority="66">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="21" priority="64">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="20" priority="65">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="19" priority="63">
+      <formula>A79&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="29" priority="70">
+    <cfRule type="expression" dxfId="18" priority="61">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B54">
-    <cfRule type="expression" dxfId="28" priority="69">
-      <formula>A51&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="17" priority="62">
+      <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B60">
-    <cfRule type="expression" dxfId="27" priority="68">
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="16" priority="60">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="15" priority="59">
       <formula>A59&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="26" priority="65">
-      <formula>A56&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="25" priority="64">
-      <formula>A55&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B66 B69:B74">
-    <cfRule type="expression" dxfId="24" priority="63">
-      <formula>A63&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="expression" dxfId="23" priority="62">
-      <formula>A71&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="22" priority="60">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="21" priority="61">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="20" priority="59">
-      <formula>A68&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="19" priority="57">
-      <formula>A31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="18" priority="58">
-      <formula>A31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="17" priority="56">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="16" priority="55">
-      <formula>A48&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="15" priority="54">
-      <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76:B79">
-    <cfRule type="expression" dxfId="14" priority="53">
-      <formula>A76&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="13" priority="50">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="12" priority="51">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="11" priority="48">
+    <cfRule type="expression" dxfId="14" priority="58">
       <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B87:B90">
+    <cfRule type="expression" dxfId="13" priority="57">
+      <formula>A87&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="12" priority="54">
+      <formula>A91&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="11" priority="55">
+      <formula>A91&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="10" priority="52">
+      <formula>A52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7 B9">
-    <cfRule type="expression" dxfId="10" priority="36">
+    <cfRule type="expression" dxfId="9" priority="40">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="9" priority="26">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16 B18">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>A17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25 B27:B30">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A33&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="97">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -507,14 +507,23 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>xyzhw</t>
-  </si>
-  <si>
-    <t>xyzhw</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>color</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>xyz</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>xyz</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>wh</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>wh</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1089,21 +1098,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1359,8 +1354,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="36"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="35"/>
+    <tableColumn id="1" name="No." dataDxfId="34"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="33"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1654,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I24" sqref="I24:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2057,7 +2052,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="37" t="str">
-        <f t="shared" ref="I26:I31" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <f t="shared" ref="I26:I32" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
         <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
@@ -2093,14 +2088,14 @@
         <v>15</v>
       </c>
       <c r="E28" s="16">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
       <c r="I28" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>`text` VARCHAR(256) COMMENT 'テキスト',</v>
+        <v>`text` VARCHAR(512) COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2108,7 +2103,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>15</v>
@@ -2121,15 +2116,15 @@
       <c r="H29" s="17"/>
       <c r="I29" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>`xyzhw` VARCHAR(32) COMMENT 'xyzhw',</v>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>15</v>
@@ -2141,206 +2136,204 @@
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
       <c r="I30" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I30" si="4">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E31" s="16">
+        <v>32</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
       <c r="I31" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
-      <c r="I32" s="38" t="s">
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="I33" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D34" s="30" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D35" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G35" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="33" t="s">
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C36 &amp; "` ("</f>
         <v>CREATE TABLE `trans` (</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="37" t="str">
-        <f>IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
-        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I37" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="37" t="str">
-        <f t="shared" ref="I38" si="4">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+        <f>IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
+        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
       <c r="H39" s="17"/>
       <c r="I39" s="37" t="str">
         <f t="shared" ref="I39" si="5">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
-        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="37" t="str">
-        <f t="shared" ref="I40:I45" si="6">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
-        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I40" si="6">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
+        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G41" s="16">
         <v>0</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="37" t="str">
-        <f t="shared" ref="I41" si="7">IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; "COMMENT '"&amp; B41 &amp;"'," &amp; IF(A41="",""," */")</f>
-        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I41:I46" si="7">IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; "COMMENT '"&amp; B41 &amp;"'," &amp; IF(A41="",""," */")</f>
+        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>18</v>
@@ -2355,53 +2348,57 @@
       <c r="H42" s="17"/>
       <c r="I42" s="37" t="str">
         <f t="shared" ref="I42" si="8">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
-        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="F43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
       <c r="H43" s="17"/>
       <c r="I43" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I43" si="9">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
+        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>12</v>
@@ -2411,160 +2408,160 @@
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I46" s="38" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I47" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D48" s="30" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D49" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E49" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G49" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H49" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="30"/>
-    </row>
-    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="33" t="s">
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C50" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C49 &amp; "` ("</f>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C50 &amp; "` ("</f>
         <v>CREATE TABLE `items` (</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="16">
-        <v>128</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="37" t="str">
-        <f t="shared" ref="I51:I57" si="9">IF(A51="","","/* ") &amp; "`" &amp; C51 &amp; "` " &amp; D51 &amp; IF(E51&gt;0,"(" &amp; E51 &amp; ") "," ") &amp; IF(F51&lt;&gt;"","NOT NULL ","") &amp; IF(G51="","","DEFAULT '" &amp; G51 &amp; "' ") &amp; "COMMENT '"&amp; B51 &amp;"'," &amp; IF(A51="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I51" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="15" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E52" s="16">
+        <v>128</v>
+      </c>
       <c r="F52" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="16">
-        <v>0</v>
-      </c>
+      <c r="G52" s="16"/>
       <c r="H52" s="17"/>
       <c r="I52" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
+        <f t="shared" ref="I52:I58" si="10">IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; "COMMENT '"&amp; B52 &amp;"'," &amp; IF(A52="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
       <c r="H53" s="17"/>
       <c r="I53" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f t="shared" si="10"/>
+        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
       <c r="I54" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="10"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>12</v>
@@ -2574,77 +2571,75 @@
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
       <c r="I55" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="10"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="10"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="F57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
       <c r="H57" s="17"/>
       <c r="I57" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" si="10"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="15"/>
-      <c r="C58" s="18" t="s">
-        <v>63</v>
+      <c r="B58" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="16">
-        <v>0</v>
-      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="37" t="str">
-        <f>IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
-        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+        <f t="shared" si="10"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="15"/>
       <c r="C59" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>18</v>
@@ -2659,159 +2654,161 @@
       <c r="H59" s="17"/>
       <c r="I59" s="37" t="str">
         <f>IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
+        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="15"/>
+      <c r="C60" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="37" t="str">
+        <f>IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; "COMMENT '"&amp; B60 &amp;"'," &amp; IF(A60="",""," */")</f>
         <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I60" s="38" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I61" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D62" s="30" t="s">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D63" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E63" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F63" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="G63" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H63" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B63" s="33" t="s">
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C64" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
         <v>CREATE TABLE `subitems` (</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D65" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E65" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="16">
-        <v>128</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="37" t="str">
-        <f t="shared" ref="I65:I71" si="10">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I65" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E66" s="16">
+        <v>128</v>
+      </c>
       <c r="F66" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="16">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I66:I72" si="11">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
+      <c r="F67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="16">
+        <v>0</v>
+      </c>
       <c r="H67" s="17"/>
       <c r="I67" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>12</v>
@@ -2821,147 +2818,143 @@
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E70" s="16"/>
-      <c r="F70" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="16">
-        <v>0</v>
-      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="F71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="16">
+        <v>0</v>
+      </c>
       <c r="H71" s="17"/>
       <c r="I71" s="37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="37" t="str">
+        <f t="shared" si="11"/>
         <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I72" s="38" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I73" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D74" s="30" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D75" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E75" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F75" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="31" t="s">
+      <c r="G75" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H75" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="33" t="s">
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B76" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C76" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C75 &amp; "` ("</f>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C76 &amp; "` ("</f>
         <v>CREATE TABLE `taxtables` (</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="15" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="16">
-        <v>128</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
-      <c r="I77" s="37" t="str">
-        <f t="shared" ref="I77:I83" si="11">IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; "COMMENT '"&amp; B77 &amp;"'," &amp; IF(A77="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I77" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="E78" s="16">
+        <v>128</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>8</v>
@@ -2969,56 +2962,59 @@
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I78:I84" si="12">IF(A78="","","/* ") &amp; "`" &amp; C78 &amp; "` " &amp; D78 &amp; IF(E78&gt;0,"(" &amp; E78 &amp; ") "," ") &amp; IF(F78&lt;&gt;"","NOT NULL ","") &amp; IF(G78="","","DEFAULT '" &amp; G78 &amp; "' ") &amp; "COMMENT '"&amp; B78 &amp;"'," &amp; IF(A78="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="22"/>
+        <f t="shared" si="12"/>
+        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="12"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="22"/>
       <c r="B81" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>12</v>
@@ -3028,322 +3024,347 @@
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="12"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="22"/>
       <c r="B82" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E82" s="16"/>
-      <c r="F82" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="16">
-        <v>0</v>
-      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="12"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="22"/>
       <c r="B83" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="F83" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
       <c r="H83" s="17"/>
       <c r="I83" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" si="12"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="22"/>
-      <c r="I84" s="38" t="s">
+      <c r="B84" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="22"/>
+      <c r="I85" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D87" s="30" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D88" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E88" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F88" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="31" t="s">
+      <c r="G88" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="32" t="s">
+      <c r="H88" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="30"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B88" s="33" t="s">
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C89" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C88 &amp; "` ("</f>
+      <c r="D89" s="34"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B90" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="16">
-        <v>128</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="37" t="str">
-        <f t="shared" ref="I90:I91" si="12">IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; "COMMENT '"&amp; B90 &amp;"'," &amp; IF(A90="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I90" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B91" s="15" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E91" s="16">
+        <v>128</v>
+      </c>
       <c r="F91" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="16">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G91" s="16"/>
       <c r="H91" s="17"/>
       <c r="I91" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I91:I92" si="13">IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; "COMMENT '"&amp; B91 &amp;"'," &amp; IF(A91="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1</v>
+      </c>
+      <c r="H92" s="17"/>
+      <c r="I92" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="22"/>
-      <c r="I92" s="38" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="22"/>
+      <c r="I93" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B68:B73 B43:B51 B54:B58 B60:B61 B40 B36:B38 B86 B34 B1:B4 B10:B12 B31:B32 B92:B1048576">
-    <cfRule type="expression" dxfId="30" priority="96">
+  <conditionalFormatting sqref="B69:B74 B44:B52 B55:B59 B61:B62 B41 B37:B39 B87 B35 B1:B4 B10:B12 B32:B33 B93:B1048576">
+    <cfRule type="expression" dxfId="32" priority="97">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" dxfId="29" priority="86">
-      <formula>A56&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B57:B58">
+    <cfRule type="expression" dxfId="31" priority="87">
+      <formula>A57&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="30" priority="75">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B66">
+    <cfRule type="expression" dxfId="29" priority="74">
+      <formula>A63&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="expression" dxfId="28" priority="73">
+      <formula>A71&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="27" priority="70">
+      <formula>A68&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="26" priority="69">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B78 B81:B86">
+    <cfRule type="expression" dxfId="25" priority="68">
+      <formula>A75&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:B84">
+    <cfRule type="expression" dxfId="24" priority="67">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="23" priority="65">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="22" priority="66">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="21" priority="64">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="20" priority="62">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="19" priority="63">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="18" priority="61">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="17" priority="60">
+      <formula>A60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="16" priority="59">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B91">
+    <cfRule type="expression" dxfId="15" priority="58">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="14" priority="55">
+      <formula>A92&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="13" priority="56">
+      <formula>A92&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="28" priority="74">
+    <cfRule type="expression" dxfId="12" priority="53">
       <formula>A53&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:B65">
-    <cfRule type="expression" dxfId="27" priority="73">
-      <formula>A62&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B71">
-    <cfRule type="expression" dxfId="26" priority="72">
-      <formula>A70&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="25" priority="69">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="24" priority="68">
-      <formula>A66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B77 B80:B85">
-    <cfRule type="expression" dxfId="23" priority="67">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B83">
-    <cfRule type="expression" dxfId="22" priority="66">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="21" priority="64">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="20" priority="65">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="19" priority="63">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="18" priority="61">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="17" priority="62">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="16" priority="60">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="15" priority="59">
-      <formula>A59&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="14" priority="58">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87:B90">
-    <cfRule type="expression" dxfId="13" priority="57">
-      <formula>A87&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="12" priority="54">
-      <formula>A91&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="11" priority="55">
-      <formula>A91&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="10" priority="52">
-      <formula>A52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7 B9">
-    <cfRule type="expression" dxfId="9" priority="40">
+    <cfRule type="expression" dxfId="11" priority="41">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="8" priority="30">
+    <cfRule type="expression" dxfId="10" priority="31">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16 B18">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25 B27:B30">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="B23:B25 B27:B29 B31">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>A33&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>A34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>A26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="99">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -524,6 +524,17 @@
   </si>
   <si>
     <t>wh</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1098,7 +1109,49 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1354,8 +1407,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="34"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="33"/>
+    <tableColumn id="1" name="No." dataDxfId="40"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1649,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2002,10 +2055,10 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="52" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
@@ -2014,7 +2067,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
+        <v>CREATE TABLE `categories` (</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2039,607 +2092,569 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="16">
+        <v>128</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="37" t="str">
-        <f t="shared" ref="I26:I32" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+        <f t="shared" ref="I26" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="16">
-        <v>64</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="16">
-        <v>512</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`text` VARCHAR(512) COMMENT 'テキスト',</v>
+      <c r="A27" s="22"/>
+      <c r="I27" s="38" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="16">
-        <v>32</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="16">
-        <v>32</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="37" t="str">
-        <f t="shared" ref="I30" si="4">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      <c r="D29" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C30 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="15" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="16">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      <c r="I31" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
       <c r="I32" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I32" si="4">IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; "COMMENT '"&amp; B32 &amp;"'," &amp; IF(A32="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="I33" s="38" t="s">
-        <v>3</v>
+      <c r="B33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="16">
+        <v>64</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="37" t="str">
+        <f t="shared" ref="I33:I38" si="5">IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; "COMMENT '"&amp; B33 &amp;"'," &amp; IF(A33="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C36 &amp; "` ("</f>
-        <v>CREATE TABLE `trans` (</v>
+      <c r="B35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="16">
+        <v>32</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="16">
+        <v>32</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="37" t="str">
+        <f t="shared" ref="I36" si="6">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E37" s="16">
+        <v>32</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="27" t="s">
-        <v>4</v>
+      <c r="I37" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
       <c r="B38" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="37" t="str">
-        <f>IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
-        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+        <f t="shared" si="5"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="37" t="str">
-        <f t="shared" ref="I39" si="5">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="37" t="str">
-        <f t="shared" ref="I40" si="6">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
-        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
+      <c r="A39" s="22"/>
+      <c r="I39" s="38" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="37" t="str">
-        <f t="shared" ref="I41:I46" si="7">IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; "COMMENT '"&amp; B41 &amp;"'," &amp; IF(A41="",""," */")</f>
-        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16" t="s">
+      <c r="D41" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="16">
-        <v>0</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="37" t="str">
-        <f t="shared" ref="I42" si="8">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
-        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
+      <c r="G41" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C42 &amp; "` ("</f>
+        <v>CREATE TABLE `trans` (</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="37" t="str">
-        <f t="shared" ref="I43" si="9">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
-        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
+      <c r="I43" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="F44" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f>IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
+        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I45" si="7">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
       <c r="I46" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" ref="I46" si="8">IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; "COMMENT '"&amp; B46 &amp;"'," &amp; IF(A46="",""," */")</f>
+        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I47" s="38" t="s">
-        <v>3</v>
+      <c r="B47" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="37" t="str">
+        <f t="shared" ref="I47:I52" si="9">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
+        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="37" t="str">
+        <f t="shared" ref="I48" si="10">IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
+        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D49" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="31" t="s">
+      <c r="B49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C50 &amp; "` ("</f>
-        <v>CREATE TABLE `items` (</v>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="37" t="str">
+        <f t="shared" ref="I49" si="11">IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; "COMMENT '"&amp; B49 &amp;"'," &amp; IF(A49="",""," */")</f>
+        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="27" t="s">
-        <v>4</v>
+      <c r="I51" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="16">
-        <v>128</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
       <c r="I52" s="37" t="str">
-        <f t="shared" ref="I52:I58" si="10">IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; "COMMENT '"&amp; B52 &amp;"'," &amp; IF(A52="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="9"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
+      <c r="I53" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D55" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="16">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+      <c r="G55" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C56 &amp; "` ("</f>
+        <v>CREATE TABLE `items` (</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      <c r="I57" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E58" s="16">
+        <v>128</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" ref="I58:I64" si="12">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="15"/>
-      <c r="C59" s="18" t="s">
-        <v>63</v>
+      <c r="B59" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>18</v>
@@ -2653,718 +2668,848 @@
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="37" t="str">
-        <f>IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
-        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+        <f t="shared" si="12"/>
+        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="15"/>
+      <c r="B60" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="C60" s="18" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="16">
-        <v>0</v>
-      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="37" t="str">
-        <f>IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; "COMMENT '"&amp; B60 &amp;"'," &amp; IF(A60="",""," */")</f>
-        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+        <f t="shared" si="12"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I61" s="38" t="s">
-        <v>3</v>
+      <c r="B61" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D63" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="31" t="s">
+      <c r="B63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="15"/>
+      <c r="C65" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B64" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
-        <v>CREATE TABLE `subitems` (</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="16">
+        <v>0</v>
+      </c>
       <c r="H65" s="17"/>
-      <c r="I65" s="27" t="s">
-        <v>4</v>
+      <c r="I65" s="37" t="str">
+        <f>IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>14</v>
+      <c r="B66" s="15"/>
+      <c r="C66" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="16">
-        <v>128</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="16"/>
+      <c r="G66" s="16">
+        <v>0</v>
+      </c>
       <c r="H66" s="17"/>
       <c r="I66" s="37" t="str">
-        <f t="shared" ref="I66:I72" si="11">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f>IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="16">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+      <c r="I67" s="38" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+      <c r="D69" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B70" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C70 &amp; "` ("</f>
+        <v>CREATE TABLE `subitems` (</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      <c r="I71" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="15" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E72" s="16">
+        <v>128</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" ref="I72:I78" si="13">IF(A72="","","/* ") &amp; "`" &amp; C72 &amp; "` " &amp; D72 &amp; IF(E72&gt;0,"(" &amp; E72 &amp; ") "," ") &amp; IF(F72&lt;&gt;"","NOT NULL ","") &amp; IF(G72="","","DEFAULT '" &amp; G72 &amp; "' ") &amp; "COMMENT '"&amp; B72 &amp;"'," &amp; IF(A72="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I73" s="38" t="s">
-        <v>3</v>
+      <c r="B73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="16">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="30"/>
-    </row>
-    <row r="76" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B76" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C76 &amp; "` ("</f>
-        <v>CREATE TABLE `taxtables` (</v>
+      <c r="B75" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="15" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="16">
+        <v>0</v>
+      </c>
       <c r="H77" s="17"/>
-      <c r="I77" s="27" t="s">
-        <v>4</v>
+      <c r="I77" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="16">
-        <v>128</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="37" t="str">
-        <f t="shared" ref="I78:I84" si="12">IF(A78="","","/* ") &amp; "`" &amp; C78 &amp; "` " &amp; D78 &amp; IF(E78&gt;0,"(" &amp; E78 &amp; ") "," ") &amp; IF(F78&lt;&gt;"","NOT NULL ","") &amp; IF(G78="","","DEFAULT '" &amp; G78 &amp; "' ") &amp; "COMMENT '"&amp; B78 &amp;"'," &amp; IF(A78="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="13"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="15" t="s">
+      <c r="I79" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D81" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B82" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="16" t="s">
+      <c r="C82" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C82 &amp; "` ("</f>
+        <v>CREATE TABLE `taxtables` (</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="16">
+        <v>128</v>
+      </c>
+      <c r="F84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="22"/>
-      <c r="B81" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
-      <c r="B82" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="22"/>
-      <c r="B83" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="16">
-        <v>0</v>
-      </c>
-      <c r="H83" s="17"/>
-      <c r="I83" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="22"/>
-      <c r="B84" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" ref="I84:I90" si="14">IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; "COMMENT '"&amp; B84 &amp;"'," &amp; IF(A84="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="22"/>
-      <c r="I85" s="38" t="s">
-        <v>3</v>
+      <c r="B85" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="37" t="str">
+        <f t="shared" si="14"/>
+        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="37" t="str">
+        <f t="shared" si="14"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="22"/>
+      <c r="B87" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="37" t="str">
+        <f t="shared" si="14"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D88" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B89" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
+      <c r="A88" s="22"/>
+      <c r="B88" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="37" t="str">
+        <f t="shared" si="14"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="22"/>
+      <c r="B89" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="16">
+        <v>0</v>
+      </c>
+      <c r="H89" s="17"/>
+      <c r="I89" s="37" t="str">
+        <f t="shared" si="14"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="22"/>
       <c r="B90" s="15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="27" t="s">
+      <c r="I90" s="37" t="str">
+        <f t="shared" si="14"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="22"/>
+      <c r="I91" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D94" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B95" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C95 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="15" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C97" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D97" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E97" s="16">
         <v>128</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F97" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="37" t="str">
-        <f t="shared" ref="I91:I92" si="13">IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; "COMMENT '"&amp; B91 &amp;"'," &amp; IF(A91="",""," */")</f>
+      <c r="G97" s="16"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="37" t="str">
+        <f t="shared" ref="I97:I98" si="15">IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; "COMMENT '"&amp; B97 &amp;"'," &amp; IF(A97="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="15" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B98" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C98" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D98" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16" t="s">
+      <c r="E98" s="16"/>
+      <c r="F98" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G98" s="16">
         <v>1</v>
       </c>
-      <c r="H92" s="17"/>
-      <c r="I92" s="37" t="str">
-        <f t="shared" si="13"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="37" t="str">
+        <f t="shared" si="15"/>
         <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="22"/>
-      <c r="I93" s="38" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="22"/>
+      <c r="I99" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B69:B74 B44:B52 B55:B59 B61:B62 B41 B37:B39 B87 B35 B1:B4 B10:B12 B32:B33 B93:B1048576">
-    <cfRule type="expression" dxfId="32" priority="97">
+  <conditionalFormatting sqref="B75:B80 B50:B58 B61:B65 B67:B68 B47 B43:B45 B93 B41 B1:B4 B10:B12 B38:B39 B27 B99:B1048576">
+    <cfRule type="expression" dxfId="34" priority="102">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
-    <cfRule type="expression" dxfId="31" priority="87">
-      <formula>A57&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="30" priority="75">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B66">
-    <cfRule type="expression" dxfId="29" priority="74">
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="expression" dxfId="33" priority="92">
       <formula>A63&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="expression" dxfId="28" priority="73">
-      <formula>A71&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="27" priority="70">
-      <formula>A68&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="26" priority="69">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B78 B81:B86">
-    <cfRule type="expression" dxfId="25" priority="68">
-      <formula>A75&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" dxfId="24" priority="67">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="23" priority="65">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="22" priority="66">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="21" priority="64">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="20" priority="62">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="19" priority="63">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="18" priority="61">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="17" priority="60">
+    <cfRule type="expression" dxfId="32" priority="80">
       <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="16" priority="59">
-      <formula>A42&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B69:B72">
+    <cfRule type="expression" dxfId="31" priority="79">
+      <formula>A69&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B91">
-    <cfRule type="expression" dxfId="15" priority="58">
-      <formula>A88&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B77:B78">
+    <cfRule type="expression" dxfId="30" priority="78">
+      <formula>A77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="14" priority="55">
-      <formula>A92&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="29" priority="75">
+      <formula>A74&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="13" priority="56">
-      <formula>A92&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="28" priority="74">
+      <formula>A73&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="12" priority="53">
-      <formula>A53&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B81:B84 B87:B92">
+    <cfRule type="expression" dxfId="27" priority="73">
+      <formula>A81&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B90">
+    <cfRule type="expression" dxfId="26" priority="72">
+      <formula>A89&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="25" priority="70">
+      <formula>A85&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="24" priority="71">
+      <formula>A85&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="23" priority="69">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="22" priority="67">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="21" priority="68">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="20" priority="66">
+      <formula>A46&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="19" priority="65">
+      <formula>A66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="18" priority="64">
+      <formula>A48&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94:B97">
+    <cfRule type="expression" dxfId="17" priority="63">
+      <formula>A94&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="16" priority="60">
+      <formula>A98&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="15" priority="61">
+      <formula>A98&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="14" priority="58">
+      <formula>A59&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7 B9">
-    <cfRule type="expression" dxfId="11" priority="41">
+    <cfRule type="expression" dxfId="13" priority="46">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="10" priority="31">
+    <cfRule type="expression" dxfId="12" priority="36">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16 B18">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25 B27:B29 B31">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="B29:B31 B37 B33:B35">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B26">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>A34&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>A26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B32">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A30&lt;&gt;""</formula>
+      <formula>A32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="99">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -1109,35 +1109,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1407,8 +1379,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="40"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
+    <tableColumn id="1" name="No." dataDxfId="36"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="35"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1702,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2114,152 +2086,152 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="I27" s="38" t="s">
+      <c r="B27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="37" t="str">
+        <f t="shared" ref="I27" si="4">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="I28" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D29" s="30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D30" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G30" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H30" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="52" t="s">
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C30 &amp; "` ("</f>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
         <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="37" t="str">
-        <f t="shared" ref="I32" si="4">IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; "COMMENT '"&amp; B32 &amp;"'," &amp; IF(A32="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+      <c r="I32" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="16">
-        <v>64</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
       <c r="I33" s="37" t="str">
-        <f t="shared" ref="I33:I38" si="5">IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; "COMMENT '"&amp; B33 &amp;"'," &amp; IF(A33="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+        <f t="shared" ref="I33" si="5">IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; "COMMENT '"&amp; B33 &amp;"'," &amp; IF(A33="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E34" s="16">
+        <v>64</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
       <c r="I34" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" ref="I34:I39" si="6">IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; "COMMENT '"&amp; B34 &amp;"'," &amp; IF(A34="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="16">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
       <c r="I35" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" si="6"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>15</v>
@@ -2271,16 +2243,16 @@
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="37" t="str">
-        <f t="shared" ref="I36" si="6">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" si="6"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>15</v>
@@ -2292,206 +2264,204 @@
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
       <c r="I37" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I37" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
       <c r="B38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E38" s="16">
+        <v>32</v>
+      </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="6"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
-      <c r="I39" s="38" t="s">
+      <c r="B39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="I40" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D41" s="30" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D42" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E42" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F42" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="33" t="s">
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C43" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C42 &amp; "` ("</f>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
         <v>CREATE TABLE `trans` (</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16" t="s">
-        <v>66</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="37" t="str">
-        <f>IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
-        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
+      <c r="I44" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="37" t="str">
-        <f t="shared" ref="I45" si="7">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+        <f>IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
+        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
       <c r="H46" s="17"/>
       <c r="I46" s="37" t="str">
         <f t="shared" ref="I46" si="8">IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; "COMMENT '"&amp; B46 &amp;"'," &amp; IF(A46="",""," */")</f>
-        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="16"/>
-      <c r="F47" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="17"/>
       <c r="I47" s="37" t="str">
-        <f t="shared" ref="I47:I52" si="9">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
-        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
+        <f t="shared" ref="I47" si="9">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
+        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G48" s="16">
         <v>0</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="37" t="str">
-        <f t="shared" ref="I48" si="10">IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
-        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
+        <f t="shared" ref="I48:I53" si="10">IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
+        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>18</v>
@@ -2506,53 +2476,57 @@
       <c r="H49" s="17"/>
       <c r="I49" s="37" t="str">
         <f t="shared" ref="I49" si="11">IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; "COMMENT '"&amp; B49 &amp;"'," &amp; IF(A49="",""," */")</f>
-        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
+        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
       <c r="H50" s="17"/>
       <c r="I50" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f t="shared" ref="I50" si="12">IF(A50="","","/* ") &amp; "`" &amp; C50 &amp; "` " &amp; D50 &amp; IF(E50&gt;0,"(" &amp; E50 &amp; ") "," ") &amp; IF(F50&lt;&gt;"","NOT NULL ","") &amp; IF(G50="","","DEFAULT '" &amp; G50 &amp; "' ") &amp; "COMMENT '"&amp; B50 &amp;"'," &amp; IF(A50="",""," */")</f>
+        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
       <c r="I51" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="10"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>12</v>
@@ -2562,160 +2536,160 @@
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
       <c r="I52" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="37" t="str">
+        <f t="shared" si="10"/>
         <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I53" s="38" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I54" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D55" s="30" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D56" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E56" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F56" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G56" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H56" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="33" t="s">
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C56 &amp; "` ("</f>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C57 &amp; "` ("</f>
         <v>CREATE TABLE `items` (</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="16">
-        <v>128</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="37" t="str">
-        <f t="shared" ref="I58:I64" si="12">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I58" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="15" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E59" s="16">
+        <v>128</v>
+      </c>
       <c r="F59" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="16">
-        <v>0</v>
-      </c>
+      <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
+        <f t="shared" ref="I59:I65" si="13">IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
       <c r="H60" s="17"/>
       <c r="I60" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f t="shared" si="13"/>
+        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="13"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>12</v>
@@ -2725,77 +2699,75 @@
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="13"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E63" s="16"/>
-      <c r="F63" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="16">
-        <v>0</v>
-      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="13"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="16">
+        <v>0</v>
+      </c>
       <c r="H64" s="17"/>
       <c r="I64" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" si="13"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="15"/>
-      <c r="C65" s="18" t="s">
-        <v>63</v>
+      <c r="B65" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="16">
-        <v>0</v>
-      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="37" t="str">
-        <f>IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
-        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+        <f t="shared" si="13"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15"/>
       <c r="C66" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>18</v>
@@ -2810,159 +2782,161 @@
       <c r="H66" s="17"/>
       <c r="I66" s="37" t="str">
         <f>IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="15"/>
+      <c r="C67" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="16">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="37" t="str">
+        <f>IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
         <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I67" s="38" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I68" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D69" s="30" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D70" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E70" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F70" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="31" t="s">
+      <c r="G70" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="32" t="s">
+      <c r="H70" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B70" s="33" t="s">
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B71" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C71" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C70 &amp; "` ("</f>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C71 &amp; "` ("</f>
         <v>CREATE TABLE `subitems` (</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="16">
-        <v>128</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="37" t="str">
-        <f t="shared" ref="I72:I78" si="13">IF(A72="","","/* ") &amp; "`" &amp; C72 &amp; "` " &amp; D72 &amp; IF(E72&gt;0,"(" &amp; E72 &amp; ") "," ") &amp; IF(F72&lt;&gt;"","NOT NULL ","") &amp; IF(G72="","","DEFAULT '" &amp; G72 &amp; "' ") &amp; "COMMENT '"&amp; B72 &amp;"'," &amp; IF(A72="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I72" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E73" s="16">
+        <v>128</v>
+      </c>
       <c r="F73" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" s="16">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G73" s="16"/>
       <c r="H73" s="17"/>
       <c r="I73" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
+        <f t="shared" ref="I73:I79" si="14">IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; "COMMENT '"&amp; B73 &amp;"'," &amp; IF(A73="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
+      <c r="F74" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="16">
+        <v>0</v>
+      </c>
       <c r="H74" s="17"/>
       <c r="I74" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f t="shared" si="14"/>
+        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="14"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>12</v>
@@ -2972,147 +2946,143 @@
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="14"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E77" s="16"/>
-      <c r="F77" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="16">
-        <v>0</v>
-      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="14"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="F78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="16">
+        <v>0</v>
+      </c>
       <c r="H78" s="17"/>
       <c r="I78" s="37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="37" t="str">
+        <f t="shared" si="14"/>
         <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I79" s="38" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I80" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D81" s="30" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D82" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E82" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F82" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="G82" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H81" s="32" t="s">
+      <c r="H82" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="30"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B82" s="33" t="s">
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B83" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C83" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="34"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C82 &amp; "` ("</f>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C83 &amp; "` ("</f>
         <v>CREATE TABLE `taxtables` (</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B84" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="16">
-        <v>128</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="37" t="str">
-        <f t="shared" ref="I84:I90" si="14">IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; "COMMENT '"&amp; B84 &amp;"'," &amp; IF(A84="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I84" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B85" s="15" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="E85" s="16">
+        <v>128</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>8</v>
@@ -3120,56 +3090,59 @@
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
+        <f t="shared" ref="I85:I91" si="15">IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; "COMMENT '"&amp; B85 &amp;"'," &amp; IF(A85="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B86" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
       <c r="I86" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
+        <f t="shared" si="15"/>
+        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="22"/>
       <c r="B87" s="15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
       <c r="I87" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="15"/>
+        <v>`remark` TEXT COMMENT '備考',</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="22"/>
       <c r="B88" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>12</v>
@@ -3179,337 +3152,362 @@
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
       <c r="I88" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
+        <f t="shared" si="15"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="22"/>
       <c r="B89" s="15" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="F89" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="16">
-        <v>0</v>
-      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
       <c r="H89" s="17"/>
       <c r="I89" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="15"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="22"/>
       <c r="B90" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
+      <c r="F90" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0</v>
+      </c>
       <c r="H90" s="17"/>
       <c r="I90" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+        <f t="shared" si="15"/>
+        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="22"/>
-      <c r="I91" s="38" t="s">
+      <c r="B91" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="22"/>
+      <c r="I92" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D94" s="30" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D95" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E95" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F94" s="31" t="s">
+      <c r="F95" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="G95" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="32" t="s">
+      <c r="H95" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="30"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B95" s="33" t="s">
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C96" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C95 &amp; "` ("</f>
+      <c r="D96" s="34"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C96 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B97" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="16">
-        <v>128</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="37" t="str">
-        <f t="shared" ref="I97:I98" si="15">IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; "COMMENT '"&amp; B97 &amp;"'," &amp; IF(A97="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I97" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B98" s="15" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="E98" s="16">
+        <v>128</v>
+      </c>
       <c r="F98" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" s="16">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G98" s="16"/>
       <c r="H98" s="17"/>
       <c r="I98" s="37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I98:I99" si="16">IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; "COMMENT '"&amp; B98 &amp;"'," &amp; IF(A98="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="16">
+        <v>1</v>
+      </c>
+      <c r="H99" s="17"/>
+      <c r="I99" s="37" t="str">
+        <f t="shared" si="16"/>
         <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="22"/>
-      <c r="I99" s="38" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="22"/>
+      <c r="I100" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B75:B80 B50:B58 B61:B65 B67:B68 B47 B43:B45 B93 B41 B1:B4 B10:B12 B38:B39 B27 B99:B1048576">
-    <cfRule type="expression" dxfId="34" priority="102">
+  <conditionalFormatting sqref="B76:B81 B51:B59 B62:B66 B68:B69 B48 B44:B46 B94 B42 B1:B4 B10:B12 B39:B40 B28 B100:B1048576">
+    <cfRule type="expression" dxfId="34" priority="103">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
-    <cfRule type="expression" dxfId="33" priority="92">
-      <formula>A63&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="33" priority="93">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="32" priority="81">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:B73">
+    <cfRule type="expression" dxfId="31" priority="80">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:B79">
+    <cfRule type="expression" dxfId="30" priority="79">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="expression" dxfId="29" priority="76">
+      <formula>A75&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="28" priority="75">
+      <formula>A74&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B85 B88:B93">
+    <cfRule type="expression" dxfId="27" priority="74">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B91">
+    <cfRule type="expression" dxfId="26" priority="73">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="25" priority="71">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="24" priority="72">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" dxfId="23" priority="70">
+      <formula>A87&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="22" priority="68">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="21" priority="69">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="20" priority="67">
+      <formula>A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="19" priority="66">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="18" priority="65">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B98">
+    <cfRule type="expression" dxfId="17" priority="64">
+      <formula>A95&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="16" priority="61">
+      <formula>A99&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="15" priority="62">
+      <formula>A99&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="32" priority="80">
+    <cfRule type="expression" dxfId="14" priority="59">
       <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B72">
-    <cfRule type="expression" dxfId="31" priority="79">
-      <formula>A69&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B78">
-    <cfRule type="expression" dxfId="30" priority="78">
-      <formula>A77&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="29" priority="75">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="28" priority="74">
-      <formula>A73&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B84 B87:B92">
-    <cfRule type="expression" dxfId="27" priority="73">
-      <formula>A81&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90">
-    <cfRule type="expression" dxfId="26" priority="72">
-      <formula>A89&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="25" priority="70">
-      <formula>A85&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="24" priority="71">
-      <formula>A85&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="23" priority="69">
-      <formula>A86&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="22" priority="67">
-      <formula>A49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="21" priority="68">
-      <formula>A49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="20" priority="66">
-      <formula>A46&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="19" priority="65">
-      <formula>A66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="18" priority="64">
-      <formula>A48&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94:B97">
-    <cfRule type="expression" dxfId="17" priority="63">
-      <formula>A94&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="16" priority="60">
-      <formula>A98&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="15" priority="61">
-      <formula>A98&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="14" priority="58">
-      <formula>A59&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7 B9">
-    <cfRule type="expression" dxfId="13" priority="46">
+    <cfRule type="expression" dxfId="13" priority="47">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="12" priority="36">
+    <cfRule type="expression" dxfId="12" priority="37">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16 B18">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B31 B37 B33:B35">
-    <cfRule type="expression" dxfId="6" priority="9">
+  <conditionalFormatting sqref="B30:B32 B38 B34:B36">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>A37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B26">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>A40&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B26">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A32&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -33,13 +33,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>変更日</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウビ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -90,10 +83,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>modified</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -119,10 +108,6 @@
   <si>
     <t>TEXT</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>説明</t>
@@ -208,228 +193,11 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>削除フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>deleted</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>削除日</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>deleted_date</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>deleted_date</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>items</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>費目</t>
-    <rPh sb="0" eb="2">
-      <t>ヒモク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>費目</t>
-    <rPh sb="0" eb="2">
-      <t>ヒモク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>経理日</t>
-    <rPh sb="0" eb="3">
-      <t>ケイリビ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>dealed</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>subitems</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>サブ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>税率テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイリツ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>3,2</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>税区分</t>
-    <rPh sb="0" eb="3">
-      <t>ゼイクブン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>taxtables</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>taxtable_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>サブ費目</t>
-    <rPh sb="2" eb="4">
-      <t>ヒモク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>subitem_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>book_count</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>subitem_count</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>trans</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>tax</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>うち消費税</t>
-    <rPh sb="2" eb="5">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>帳簿</t>
-    <rPh sb="0" eb="2">
-      <t>チョウボ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>収支テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>factor</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>計算係数</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイスウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>categories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>収支区分</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -939,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,9 +805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1109,147 +874,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1379,8 +1004,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="36"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="35"/>
+    <tableColumn id="1" name="No." dataDxfId="16"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="15"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1674,15 +1299,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="43" customWidth="1"/>
+    <col min="1" max="1" width="2.25" style="42" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="22" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="22" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
@@ -1695,11 +1320,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>79</v>
+      <c r="B1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -1718,39 +1343,39 @@
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="H3" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="H5" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C6 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
@@ -1758,64 +1383,64 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
       <c r="I7" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="37" t="str">
+      <c r="I8" s="36" t="str">
         <f t="shared" ref="I8" si="0">IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="16">
         <v>128</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="37" t="str">
+      <c r="I9" s="36" t="str">
         <f t="shared" ref="I9:I11" si="1">IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; "COMMENT '"&amp; B9 &amp;"'," &amp; IF(A9="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
@@ -1826,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="37" t="str">
+      <c r="I10" s="36" t="str">
         <f t="shared" si="1"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
@@ -1843,59 +1468,59 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="15" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="37" t="str">
+      <c r="I11" s="36" t="str">
         <f t="shared" si="1"/>
         <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="I12" s="38" t="s">
-        <v>3</v>
+      <c r="I12" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>6</v>
-      </c>
       <c r="F14" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="H14" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
         <v>CREATE TABLE `histories` (</v>
@@ -1903,52 +1528,52 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="37" t="str">
+      <c r="I17" s="36" t="str">
         <f t="shared" ref="I17:I20" si="2">IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
         <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16">
         <v>128</v>
@@ -1956,7 +1581,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="37" t="str">
+      <c r="I18" s="36" t="str">
         <f t="shared" si="2"/>
         <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
@@ -1967,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="37" t="str">
+      <c r="I19" s="36" t="str">
         <f t="shared" si="2"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
@@ -1984,59 +1609,59 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="37" t="str">
+      <c r="I20" s="36" t="str">
         <f t="shared" si="2"/>
         <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="I21" s="38" t="s">
-        <v>3</v>
+      <c r="I21" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D23" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>6</v>
-      </c>
       <c r="F23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="H23" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
+      <c r="B24" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
@@ -2044,104 +1669,104 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16">
         <v>128</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="37" t="str">
+      <c r="I26" s="36" t="str">
         <f t="shared" ref="I26" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="37" t="str">
+      <c r="I27" s="36" t="str">
         <f t="shared" ref="I27" si="4">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
-      <c r="I28" s="38" t="s">
-        <v>3</v>
+      <c r="I28" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>6</v>
-      </c>
       <c r="F30" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="H30" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="B31" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
         <v>CREATE TABLE `notes` (</v>
@@ -2149,52 +1774,52 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
       <c r="I32" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="37" t="str">
+      <c r="I33" s="36" t="str">
         <f t="shared" ref="I33" si="5">IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; "COMMENT '"&amp; B33 &amp;"'," &amp; IF(A33="",""," */")</f>
         <v>`category_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16">
         <v>64</v>
@@ -2202,39 +1827,39 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="37" t="str">
+      <c r="I34" s="36" t="str">
         <f t="shared" ref="I34:I39" si="6">IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; "COMMENT '"&amp; B34 &amp;"'," &amp; IF(A34="",""," */")</f>
         <v>`name` VARCHAR(64) COMMENT '名前',</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="37" t="str">
+      <c r="I35" s="36" t="str">
         <f t="shared" si="6"/>
         <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16">
         <v>32</v>
@@ -2242,20 +1867,20 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="37" t="str">
+      <c r="I36" s="36" t="str">
         <f t="shared" si="6"/>
         <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16">
         <v>32</v>
@@ -2263,20 +1888,20 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="37" t="str">
+      <c r="I37" s="36" t="str">
         <f t="shared" ref="I37" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
         <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16">
         <v>32</v>
@@ -2284,7 +1909,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="37" t="str">
+      <c r="I38" s="36" t="str">
         <f t="shared" si="6"/>
         <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
@@ -2295,1149 +1920,31 @@
         <v>0</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="37" t="str">
+      <c r="I39" s="36" t="str">
         <f t="shared" si="6"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
-      <c r="I40" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D42" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
-        <v>CREATE TABLE `trans` (</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="I40" s="37" t="s">
         <v>2</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="37" t="str">
-        <f>IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
-        <v>`dealed` DATE NOT NULL COMMENT '経理日',</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="37" t="str">
-        <f t="shared" ref="I46" si="8">IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; "COMMENT '"&amp; B46 &amp;"'," &amp; IF(A46="",""," */")</f>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="37" t="str">
-        <f t="shared" ref="I47" si="9">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
-        <v>`subitem_id` INT COMMENT 'サブ費目',</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="16">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="37" t="str">
-        <f t="shared" ref="I48:I53" si="10">IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
-        <v>`amount` INT NOT NULL DEFAULT '0' COMMENT '金額',</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="37" t="str">
-        <f t="shared" ref="I49" si="11">IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; "COMMENT '"&amp; B49 &amp;"'," &amp; IF(A49="",""," */")</f>
-        <v>`tax` INT NOT NULL DEFAULT '0' COMMENT 'うち消費税',</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="37" t="str">
-        <f t="shared" ref="I50" si="12">IF(A50="","","/* ") &amp; "`" &amp; C50 &amp; "` " &amp; D50 &amp; IF(E50&gt;0,"(" &amp; E50 &amp; ") "," ") &amp; IF(F50&lt;&gt;"","NOT NULL ","") &amp; IF(G50="","","DEFAULT '" &amp; G50 &amp; "' ") &amp; "COMMENT '"&amp; B50 &amp;"'," &amp; IF(A50="",""," */")</f>
-        <v>`taxtable_id` INT NOT NULL DEFAULT '0' COMMENT '税区分',</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I54" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D56" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B57" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C57 &amp; "` ("</f>
-        <v>CREATE TABLE `items` (</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="16">
-        <v>128</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="37" t="str">
-        <f t="shared" ref="I59:I65" si="13">IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="16">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`category_id` INT NOT NULL DEFAULT '0' COMMENT '収支区分',</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="16">
-        <v>0</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="15"/>
-      <c r="C66" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="16">
-        <v>0</v>
-      </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="37" t="str">
-        <f>IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
-        <v>`book_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="15"/>
-      <c r="C67" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="16">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="37" t="str">
-        <f>IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
-        <v>`subitem_count` INT NOT NULL DEFAULT '0' COMMENT '',</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I68" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D70" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="30"/>
-    </row>
-    <row r="71" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B71" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C71 &amp; "` ("</f>
-        <v>CREATE TABLE `subitems` (</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="16">
-        <v>128</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="37" t="str">
-        <f t="shared" ref="I73:I79" si="14">IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; "COMMENT '"&amp; B73 &amp;"'," &amp; IF(A73="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="16">
-        <v>0</v>
-      </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`item_id` INT NOT NULL DEFAULT '0' COMMENT '費目',</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="16">
-        <v>0</v>
-      </c>
-      <c r="H78" s="17"/>
-      <c r="I78" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="37" t="str">
-        <f t="shared" si="14"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I80" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D82" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B83" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C83 &amp; "` ("</f>
-        <v>CREATE TABLE `taxtables` (</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="16">
-        <v>128</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="37" t="str">
-        <f t="shared" ref="I85:I91" si="15">IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; "COMMENT '"&amp; B85 &amp;"'," &amp; IF(A85="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`ratio` DECIMAL(3,2) NOT NULL COMMENT '税率テーブル',</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`remark` TEXT COMMENT '備考',</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="22"/>
-      <c r="B88" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="22"/>
-      <c r="B89" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="22"/>
-      <c r="B90" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="16">
-        <v>0</v>
-      </c>
-      <c r="H90" s="17"/>
-      <c r="I90" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`deleted` TINYINT NOT NULL DEFAULT '0' COMMENT '削除フラグ',</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="22"/>
-      <c r="B91" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="22"/>
-      <c r="I92" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D95" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" s="30"/>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B96" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C96 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="16">
-        <v>128</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="37" t="str">
-        <f t="shared" ref="I98:I99" si="16">IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; "COMMENT '"&amp; B98 &amp;"'," &amp; IF(A98="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="16">
-        <v>1</v>
-      </c>
-      <c r="H99" s="17"/>
-      <c r="I99" s="37" t="str">
-        <f t="shared" si="16"/>
-        <v>`factor` TINYINT NOT NULL DEFAULT '1' COMMENT '計算係数',</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="22"/>
-      <c r="I100" s="38" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B76:B81 B51:B59 B62:B66 B68:B69 B48 B44:B46 B94 B42 B1:B4 B10:B12 B39:B40 B28 B100:B1048576">
-    <cfRule type="expression" dxfId="34" priority="103">
+  <conditionalFormatting sqref="B1:B4 B10:B12 B39:B40 B28 B42:B1048576">
+    <cfRule type="expression" dxfId="14" priority="103">
       <formula>A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B65">
-    <cfRule type="expression" dxfId="33" priority="93">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="32" priority="81">
-      <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B73">
-    <cfRule type="expression" dxfId="31" priority="80">
-      <formula>A70&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B79">
-    <cfRule type="expression" dxfId="30" priority="79">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="expression" dxfId="29" priority="76">
-      <formula>A75&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="28" priority="75">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B85 B88:B93">
-    <cfRule type="expression" dxfId="27" priority="74">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B91">
-    <cfRule type="expression" dxfId="26" priority="73">
-      <formula>A90&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="25" priority="71">
-      <formula>A86&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="24" priority="72">
-      <formula>A86&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="23" priority="70">
-      <formula>A87&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="22" priority="68">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="21" priority="69">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="20" priority="67">
-      <formula>A47&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="19" priority="66">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="18" priority="65">
-      <formula>A49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B98">
-    <cfRule type="expression" dxfId="17" priority="64">
-      <formula>A95&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="16" priority="61">
-      <formula>A99&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="15" priority="62">
-      <formula>A99&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="14" priority="59">
-      <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7 B9">
@@ -3527,9 +2034,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3547,14 +2052,14 @@
     <row r="1" spans="1:8" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -3563,7 +2068,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3571,19 +2076,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
@@ -3591,12 +2096,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="41" t="str">
+        <v>32</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v>ALTER TABLE  trans ADD INDEX (modified );</v>
       </c>
@@ -3606,120 +2111,120 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="41" t="str">
+        <v>32</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v>ALTER TABLE  trans ADD INDEX (dealed );</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C9" s="1"/>
-      <c r="E9" s="49"/>
-      <c r="H9" s="41" t="str">
+      <c r="E9" s="48"/>
+      <c r="H9" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C10" s="1"/>
-      <c r="E10" s="48"/>
-      <c r="H10" s="41" t="str">
+      <c r="E10" s="47"/>
+      <c r="H10" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
-      <c r="E11" s="48"/>
-      <c r="H11" s="41" t="str">
+      <c r="E11" s="47"/>
+      <c r="H11" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C12" s="1"/>
-      <c r="E12" s="48"/>
-      <c r="H12" s="41" t="str">
+      <c r="E12" s="47"/>
+      <c r="H12" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
-      <c r="E13" s="48"/>
-      <c r="H13" s="41" t="str">
+      <c r="E13" s="47"/>
+      <c r="H13" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
-      <c r="H14" s="41"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
-      <c r="H15" s="41"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
-      <c r="H16" s="41"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
-      <c r="E17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
-      <c r="E18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="E18" s="39"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
-      <c r="H19" s="41"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
-      <c r="H21" s="41"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
-      <c r="H22" s="41"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
-      <c r="H23" s="41"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
-      <c r="H24" s="41"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C25" s="13"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="H25" s="41"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="42" t="s">
-        <v>28</v>
+      <c r="B28" s="41" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -303,6 +303,29 @@
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todopages</t>
+  </si>
+  <si>
+    <t>todopages</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todopage_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>pageid</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ord</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -874,7 +897,63 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1004,8 +1083,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="16"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="15"/>
+    <tableColumn id="1" name="No." dataDxfId="24"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="23"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1299,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1403,618 +1482,816 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
       <c r="I8" s="36" t="str">
         <f t="shared" ref="I8" si="0">IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <v>`todopage_id` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="16">
-        <v>128</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
       <c r="I9" s="36" t="str">
-        <f t="shared" ref="I9:I11" si="1">IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; "COMMENT '"&amp; B9 &amp;"'," &amp; IF(A9="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I9" si="1">IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; "COMMENT '"&amp; B9 &amp;"'," &amp; IF(A9="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E10" s="16">
+        <v>128</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
       <c r="I10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I10:I12" si="2">IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; "COMMENT '"&amp; B10 &amp;"'," &amp; IF(A10="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <f t="shared" si="2"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="I12" s="37" t="s">
+      <c r="B12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="I13" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D14" s="30" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="51" t="s">
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C16" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C16 &amp; "` ("</f>
         <v>CREATE TABLE `histories` (</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="36" t="str">
-        <f t="shared" ref="I17:I20" si="2">IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+      <c r="I17" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="16">
-        <v>128</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
       <c r="I18" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+        <f t="shared" ref="I18" si="3">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I19:I22" si="4">IF(A19="","","/* ") &amp; "`" &amp; C19 &amp; "` " &amp; D19 &amp; IF(E19&gt;0,"(" &amp; E19 &amp; ") "," ") &amp; IF(F19&lt;&gt;"","NOT NULL ","") &amp; IF(G19="","","DEFAULT '" &amp; G19 &amp; "' ") &amp; "COMMENT '"&amp; B19 &amp;"'," &amp; IF(A19="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="16">
+        <v>128</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <f t="shared" si="4"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="I21" s="37" t="s">
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="I23" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="30" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="51" t="s">
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="16">
-        <v>128</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="36" t="str">
-        <f t="shared" ref="I26" si="3">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="36" t="str">
-        <f t="shared" ref="I27" si="4">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
+      <c r="I27" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16">
+        <v>128</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="36" t="str">
+        <f t="shared" ref="I28" si="5">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="36" t="str">
+        <f t="shared" ref="I29" si="6">IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="I28" s="37" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="I30" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D30" s="30" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E32" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F32" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G32" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H32" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="36" t="str">
-        <f t="shared" ref="I33" si="5">IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; "COMMENT '"&amp; B33 &amp;"'," &amp; IF(A33="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C33 &amp; "` ("</f>
+        <v>CREATE TABLE `todopages` (</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="16">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="36" t="str">
-        <f t="shared" ref="I34:I39" si="6">IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; "COMMENT '"&amp; B34 &amp;"'," &amp; IF(A34="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      <c r="I34" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E35" s="16">
+        <v>128</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
       <c r="I35" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" ref="I35:I37" si="7">IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; "COMMENT '"&amp; B35 &amp;"'," &amp; IF(A35="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="16">
-        <v>32</v>
-      </c>
-      <c r="F36" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" si="7"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
       <c r="B37" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="16">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36" t="str">
-        <f t="shared" ref="I37" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <f t="shared" si="7"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="I38" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D40" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C41 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="36" t="str">
+        <f t="shared" ref="I43" si="8">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="16">
+        <v>64</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="36" t="str">
+        <f t="shared" ref="I44:I49" si="9">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="16">
+        <v>32</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="16">
+        <v>32</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="36" t="str">
+        <f t="shared" ref="I47" si="10">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
         <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="15" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E48" s="16">
         <v>32</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="15" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="22"/>
+      <c r="B49" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="36" t="str">
+        <f t="shared" si="9"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="I40" s="37" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="22"/>
+      <c r="I50" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B4 B10:B12 B39:B40 B28 B42:B1048576">
-    <cfRule type="expression" dxfId="14" priority="103">
+  <conditionalFormatting sqref="B1:B4 B11:B13 B49:B50 B30 B52:B1048576">
+    <cfRule type="expression" dxfId="22" priority="110">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B7 B9">
-    <cfRule type="expression" dxfId="13" priority="47">
+  <conditionalFormatting sqref="B5:B7 B10">
+    <cfRule type="expression" dxfId="21" priority="54">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="12" priority="37">
-      <formula>A13&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="20" priority="44">
+      <formula>A14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B23">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>A21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17 B20">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>A15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>A24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>A19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B42 B48 B44:B46">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>A51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B28">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>A25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>A32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>A19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B16 B18">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>A14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>A22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>A17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B32 B38 B34:B36">
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>A37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B26">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>A29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>A33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A27&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -326,6 +326,49 @@
   </si>
   <si>
     <t>ord</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>events</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>dayofevent</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>textcolor</t>
+  </si>
+  <si>
+    <t>textcolor</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -897,7 +940,119 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1083,8 +1238,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="24"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="23"/>
+    <tableColumn id="1" name="No." dataDxfId="40"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1378,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1426,6 +1581,9 @@
       <c r="H3" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="D5" s="30" t="s">
         <v>4</v>
       </c>
@@ -1445,10 +1603,10 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="51" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
@@ -1457,7 +1615,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C6 &amp; "` ("</f>
-        <v>CREATE TABLE `todos` (</v>
+        <v>CREATE TABLE `todopages` (</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1482,326 +1640,329 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="16">
+        <v>128</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8" si="0">IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
+        <f t="shared" ref="I8:I10" si="0">IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
       <c r="I9" s="36" t="str">
-        <f t="shared" ref="I9" si="1">IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; "COMMENT '"&amp; B9 &amp;"'," &amp; IF(A9="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" si="0"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="16">
-        <v>128</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>38</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
       <c r="I10" s="36" t="str">
-        <f t="shared" ref="I10:I12" si="2">IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; "COMMENT '"&amp; B10 &amp;"'," &amp; IF(A10="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="0"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
-      <c r="B11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+      <c r="I11" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="I13" s="37" t="s">
-        <v>2</v>
+      <c r="D13" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C14 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D15" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C16 &amp; "` ("</f>
-        <v>CREATE TABLE `histories` (</v>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="36" t="str">
+        <f t="shared" ref="I16" si="1">IF(A16="","","/* ") &amp; "`" &amp; C16 &amp; "` " &amp; D16 &amp; IF(E16&gt;0,"(" &amp; E16 &amp; ") "," ") &amp; IF(F16&lt;&gt;"","NOT NULL ","") &amp; IF(G16="","","DEFAULT '" &amp; G16 &amp; "' ") &amp; "COMMENT '"&amp; B16 &amp;"'," &amp; IF(A16="",""," */")</f>
+        <v>`todopage_id` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="27" t="s">
-        <v>3</v>
+      <c r="I17" s="36" t="str">
+        <f t="shared" ref="I17" si="2">IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E18" s="16">
+        <v>128</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
       <c r="I18" s="36" t="str">
-        <f t="shared" ref="I18" si="3">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
+        <f t="shared" ref="I18:I20" si="3">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="36" t="str">
-        <f t="shared" ref="I19:I22" si="4">IF(A19="","","/* ") &amp; "`" &amp; C19 &amp; "` " &amp; D19 &amp; IF(E19&gt;0,"(" &amp; E19 &amp; ") "," ") &amp; IF(F19&lt;&gt;"","NOT NULL ","") &amp; IF(G19="","","DEFAULT '" &amp; G19 &amp; "' ") &amp; "COMMENT '"&amp; B19 &amp;"'," &amp; IF(A19="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+        <f t="shared" si="3"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="16">
-        <v>128</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+        <f t="shared" si="3"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+      <c r="I21" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="I23" s="37" t="s">
-        <v>2</v>
+      <c r="D23" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+        <v>CREATE TABLE `histories` (</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
+      <c r="B25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="36" t="str">
+        <f t="shared" ref="I26" si="4">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="27" t="s">
-        <v>3</v>
+      <c r="I27" s="36" t="str">
+        <f t="shared" ref="I27:I30" si="5">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1817,481 +1978,710 @@
       <c r="E28" s="16">
         <v>128</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36" t="str">
-        <f t="shared" ref="I28" si="5">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="5"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
       <c r="B29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
       <c r="I29" s="36" t="str">
-        <f t="shared" ref="I29" si="6">IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" si="5"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
-      <c r="I30" s="37" t="s">
+      <c r="B30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="I31" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D32" s="30" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H33" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C33 &amp; "` ("</f>
-        <v>CREATE TABLE `todopages` (</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="27" t="s">
-        <v>3</v>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C34 &amp; "` ("</f>
+        <v>CREATE TABLE `events` (</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="16">
-        <v>128</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="36" t="str">
-        <f t="shared" ref="I35:I37" si="7">IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; "COMMENT '"&amp; B35 &amp;"'," &amp; IF(A35="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I35" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E36" s="16">
+        <v>128</v>
+      </c>
       <c r="F36" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
+        <f t="shared" ref="I36:I41" si="6">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
       <c r="B37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="36" t="str">
+        <f t="shared" ref="I38" si="7">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16">
+        <v>32</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="16">
+        <v>32</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="36" t="str">
+        <f t="shared" ref="I40" si="8">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="36" t="str">
+        <f t="shared" si="6"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="I38" s="37" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="I42" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D40" s="30" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E44" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F44" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G44" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H44" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C41 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="36" t="str">
-        <f t="shared" ref="I43" si="8">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="16">
-        <v>64</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="36" t="str">
-        <f t="shared" ref="I44:I49" si="9">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C45 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="16">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      <c r="I46" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="16">
-        <v>32</v>
-      </c>
-      <c r="F47" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G47" s="16"/>
       <c r="H47" s="17"/>
       <c r="I47" s="36" t="str">
-        <f t="shared" ref="I47" si="10">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" ref="I47" si="9">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="16">
-        <v>32</v>
-      </c>
-      <c r="F48" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
       <c r="I48" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I48" si="10">IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
-      <c r="B49" s="15" t="s">
+      <c r="I49" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D51" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C52 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="36" t="str">
+        <f t="shared" ref="I54" si="11">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16">
+        <v>64</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="36" t="str">
+        <f t="shared" ref="I55:I60" si="12">IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; "COMMENT '"&amp; B55 &amp;"'," &amp; IF(A55="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="16">
+        <v>32</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="16">
+        <v>32</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="36" t="str">
+        <f t="shared" ref="I58" si="13">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="16">
+        <v>32</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="22"/>
+      <c r="B60" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D60" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="36" t="str">
-        <f t="shared" si="9"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="36" t="str">
+        <f t="shared" si="12"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="22"/>
-      <c r="I50" s="37" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="22"/>
+      <c r="I61" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B4 B11:B13 B49:B50 B30 B52:B1048576">
-    <cfRule type="expression" dxfId="22" priority="110">
+  <conditionalFormatting sqref="B1:B4 B19:B21 B60:B61 B49 B63:B1048576">
+    <cfRule type="expression" dxfId="30" priority="119">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B7 B10">
-    <cfRule type="expression" dxfId="21" priority="54">
+  <conditionalFormatting sqref="B13:B15 B18">
+    <cfRule type="expression" dxfId="29" priority="63">
+      <formula>A13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="28" priority="53">
+      <formula>A22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>A17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B31">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25 B28">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>A32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="23" priority="28">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B53 B59 B55:B57">
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>A51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="21" priority="25">
+      <formula>A62&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B47">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>A44&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>A48&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>A11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="20" priority="44">
-      <formula>A14&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="19" priority="24">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B23">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>A21&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17 B20">
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>A15&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>A24&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>A26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>A19&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B42 B48 B44:B46">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>A51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>A47&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B28">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>A25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>A31&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B33:B36">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>A29&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>A37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>A32&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>A37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>A8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B40">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A18&lt;&gt;""</formula>
+      <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="77">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -369,6 +369,26 @@
   </si>
   <si>
     <t>textcolor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Calendar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendars</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendar_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TEXT</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -940,280 +960,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <b/>
@@ -1221,6 +968,265 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1238,8 +1244,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="40"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
+    <tableColumn id="1" name="No." dataDxfId="1"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1533,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2092,595 +2098,794 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="16">
-        <v>128</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="36" t="str">
-        <f t="shared" ref="I36:I41" si="6">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I36" si="6">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E37" s="16">
+        <v>128</v>
+      </c>
       <c r="F37" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <f t="shared" ref="I37:I43" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="F38" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="36" t="str">
-        <f t="shared" ref="I38" si="7">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
+        <f t="shared" si="7"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="16">
-        <v>32</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I39:I40" si="8">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="16">
-        <v>32</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="36" t="str">
-        <f t="shared" ref="I40" si="8">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" si="8"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
       <c r="B41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E41" s="16">
+        <v>32</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
       <c r="I41" s="36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="16">
+        <v>32</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="36" t="str">
+        <f t="shared" ref="I42" si="9">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="36" t="str">
+        <f t="shared" si="7"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="I42" s="37" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="I44" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="42"/>
+      <c r="D46" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E46" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F46" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G46" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H46" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C45 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="16">
-        <v>128</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="36" t="str">
-        <f t="shared" ref="I47" si="9">IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; "COMMENT '"&amp; B47 &amp;"'," &amp; IF(A47="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="36" t="str">
-        <f t="shared" ref="I48" si="10">IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; "COMMENT '"&amp; B48 &amp;"'," &amp; IF(A48="",""," */")</f>
+      <c r="I48" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="16">
+        <v>128</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="36" t="str">
+        <f t="shared" ref="I49:I51" si="10">IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; "COMMENT '"&amp; B49 &amp;"'," &amp; IF(A49="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="36" t="str">
+        <f t="shared" si="10"/>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
-      <c r="I49" s="37" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="22"/>
+      <c r="B51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="22"/>
+      <c r="I52" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D51" s="30" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E54" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F54" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G54" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H54" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B52" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C52 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="36" t="str">
-        <f t="shared" ref="I54" si="11">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="16">
-        <v>64</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="36" t="str">
-        <f t="shared" ref="I55:I60" si="12">IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; "COMMENT '"&amp; B55 &amp;"'," &amp; IF(A55="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C55 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" s="15" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
-      <c r="I56" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+      <c r="I56" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="16">
-        <v>32</v>
-      </c>
-      <c r="F57" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
       <c r="I57" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" ref="I57" si="11">IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; "COMMENT '"&amp; B57 &amp;"'," &amp; IF(A57="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="16">
-        <v>32</v>
-      </c>
-      <c r="F58" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="36" t="str">
-        <f t="shared" ref="I58" si="13">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <f t="shared" ref="I58" si="12">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+      <c r="I59" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D61" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="36" t="str">
+        <f t="shared" ref="I64" si="13">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="16">
+        <v>64</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="36" t="str">
+        <f t="shared" ref="I65:I70" si="14">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="16">
+        <v>32</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="16">
+        <v>32</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="36" t="str">
+        <f t="shared" ref="I68" si="15">IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
         <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D69" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E69" s="16">
         <v>32</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="36" t="str">
-        <f t="shared" si="12"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="36" t="str">
+        <f t="shared" si="14"/>
         <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
-      <c r="B60" s="15" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="22"/>
+      <c r="B70" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="36" t="str">
-        <f t="shared" si="12"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="36" t="str">
+        <f t="shared" si="14"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
-      <c r="I61" s="37" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="22"/>
+      <c r="I71" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B4 B19:B21 B60:B61 B49 B63:B1048576">
-    <cfRule type="expression" dxfId="30" priority="119">
+  <conditionalFormatting sqref="B1:B4 B19:B21 B70:B71 B59 B73:B1048576">
+    <cfRule type="expression" dxfId="38" priority="126">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B15 B18">
-    <cfRule type="expression" dxfId="29" priority="63">
+    <cfRule type="expression" dxfId="37" priority="70">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="28" priority="53">
+    <cfRule type="expression" dxfId="36" priority="60">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B31">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25 B28">
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>A32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B53 B59 B55:B57">
-    <cfRule type="expression" dxfId="22" priority="26">
+  <conditionalFormatting sqref="B61:B63 B69 B65:B67">
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="29" priority="32">
+      <formula>A72&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>A68&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B57">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>A60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>A11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>A5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>A16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>A26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>A44&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B35 B37">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>A33&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>A52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B49">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>A46&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>A51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>A62&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>A58&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B47">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>A44&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>A48&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>A11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B8">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>A5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>A12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>A26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B36">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>A33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>A37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>A38&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -960,7 +960,280 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -968,265 +1241,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,8 +1258,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="1"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="40"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1541,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2705,187 +2719,187 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B1:B4 B19:B21 B70:B71 B59 B73:B1048576">
-    <cfRule type="expression" dxfId="38" priority="126">
+    <cfRule type="expression" dxfId="36" priority="128">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B15 B18">
-    <cfRule type="expression" dxfId="37" priority="70">
+    <cfRule type="expression" dxfId="35" priority="72">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="36" priority="60">
+    <cfRule type="expression" dxfId="34" priority="62">
       <formula>A22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B31">
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25 B28">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="30" priority="38">
       <formula>A32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B63 B69 B65:B67">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>A61&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="27" priority="34">
       <formula>A72&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>A68&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B57">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>A54&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>A64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>A58&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>A26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>A44&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B35 B37">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>A33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>A52&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>A46&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>A53&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>A50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>A51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -389,6 +389,17 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -960,21 +971,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1258,8 +1255,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="40"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
+    <tableColumn id="1" name="No." dataDxfId="38"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="37"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1553,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1842,40 +1839,43 @@
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
       <c r="I18" s="36" t="str">
-        <f t="shared" ref="I18:I20" si="3">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
+        <f t="shared" ref="I18:I21" si="3">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="16">
         <v>0</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1883,95 +1883,96 @@
       <c r="H20" s="17"/>
       <c r="I20" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="I21" s="37" t="s">
+      <c r="B21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="I22" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="30" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D24" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E24" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="51" t="s">
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C25 &amp; "` ("</f>
         <v>CREATE TABLE `histories` (</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="36" t="str">
-        <f t="shared" ref="I26" si="4">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
+      <c r="I26" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>16</v>
@@ -1981,61 +1982,60 @@
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
       <c r="I27" s="36" t="str">
-        <f t="shared" ref="I27:I30" si="5">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+        <f t="shared" ref="I27" si="4">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="16">
-        <v>128</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+        <f t="shared" ref="I28:I31" si="5">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
       <c r="B29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E29" s="16">
+        <v>128</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
       <c r="I29" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -2043,201 +2043,200 @@
       <c r="H30" s="17"/>
       <c r="I30" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
-      <c r="I31" s="37" t="s">
+      <c r="B31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="I32" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="42" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="51" t="s">
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C35" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C34 &amp; "` ("</f>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
         <v>CREATE TABLE `events` (</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="36" t="str">
-        <f t="shared" ref="I36" si="6">IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; "COMMENT '"&amp; B36 &amp;"'," &amp; IF(A36="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
+      <c r="I36" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="16">
-        <v>128</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36" t="str">
-        <f t="shared" ref="I37:I43" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I37" si="6">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E38" s="16">
+        <v>128</v>
+      </c>
       <c r="F38" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <f t="shared" ref="I38:I44" si="7">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36" t="str">
-        <f t="shared" ref="I39:I40" si="8">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
+        <f t="shared" si="7"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+        <f t="shared" ref="I40:I41" si="8">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="16">
-        <v>32</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
       <c r="I41" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" si="8"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>13</v>
@@ -2249,411 +2248,411 @@
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="36" t="str">
-        <f t="shared" ref="I42" si="9">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" si="7"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
       <c r="B43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E43" s="16">
+        <v>32</v>
+      </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
       <c r="I43" s="36" t="str">
+        <f t="shared" ref="I43" si="9">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="36" t="str">
         <f t="shared" si="7"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="I44" s="37" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="I45" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="42"/>
-      <c r="D46" s="30" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="42"/>
+      <c r="D47" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E47" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F47" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G47" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H47" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="51" t="s">
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C48" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C48 &amp; "` ("</f>
         <v>CREATE TABLE `calendars` (</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="16">
-        <v>128</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="36" t="str">
-        <f t="shared" ref="I49:I51" si="10">IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; "COMMENT '"&amp; B49 &amp;"'," &amp; IF(A49="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I49" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E50" s="16">
+        <v>128</v>
+      </c>
       <c r="F50" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
       <c r="I50" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" ref="I50:I52" si="10">IF(A50="","","/* ") &amp; "`" &amp; C50 &amp; "` " &amp; D50 &amp; IF(E50&gt;0,"(" &amp; E50 &amp; ") "," ") &amp; IF(F50&lt;&gt;"","NOT NULL ","") &amp; IF(G50="","","DEFAULT '" &amp; G50 &amp; "' ") &amp; "COMMENT '"&amp; B50 &amp;"'," &amp; IF(A50="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
       <c r="B51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="F51" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
       <c r="I51" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
-      <c r="I52" s="37" t="s">
+      <c r="B52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="22"/>
+      <c r="I53" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="42" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D55" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E55" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F55" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="G55" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H55" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="51" t="s">
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C56" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C55 &amp; "` ("</f>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C56 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="16">
-        <v>128</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="36" t="str">
-        <f t="shared" ref="I57" si="11">IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; "COMMENT '"&amp; B57 &amp;"'," &amp; IF(A57="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I57" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E58" s="16">
+        <v>128</v>
+      </c>
       <c r="F58" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="36" t="str">
-        <f t="shared" ref="I58" si="12">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <f t="shared" ref="I58" si="11">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="36" t="str">
+        <f t="shared" ref="I59" si="12">IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="I59" s="37" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="22"/>
+      <c r="I60" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D61" s="30" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D62" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E62" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F62" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G62" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H62" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B62" s="51" t="s">
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B63" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C63" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
         <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" s="15" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
-      <c r="I64" s="36" t="str">
-        <f t="shared" ref="I64" si="13">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+      <c r="I64" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="16">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="36" t="str">
-        <f t="shared" ref="I65:I70" si="14">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+        <f t="shared" ref="I65" si="13">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E66" s="16">
+        <v>64</v>
+      </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" ref="I66:I71" si="14">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="16">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>13</v>
@@ -2665,16 +2664,16 @@
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="36" t="str">
-        <f t="shared" ref="I68" si="15">IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" si="14"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B69" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>13</v>
@@ -2686,51 +2685,72 @@
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I69" si="15">IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; "COMMENT '"&amp; B69 &amp;"'," &amp; IF(A69="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="22"/>
       <c r="B70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E70" s="16">
+        <v>32</v>
+      </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
-      <c r="I71" s="37" t="s">
+      <c r="B71" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="22"/>
+      <c r="I72" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B4 B19:B21 B70:B71 B59 B73:B1048576">
+  <conditionalFormatting sqref="B1:B4 B20:B22 B71:B72 B60 B74:B1048576">
     <cfRule type="expression" dxfId="36" priority="128">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B15 B18">
+  <conditionalFormatting sqref="B13:B15 B18:B19">
     <cfRule type="expression" dxfId="35" priority="72">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B23">
     <cfRule type="expression" dxfId="34" priority="62">
-      <formula>A22&lt;&gt;""</formula>
+      <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
@@ -2738,59 +2758,59 @@
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B31">
+  <conditionalFormatting sqref="B30:B32">
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>A29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25 B28">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B26 B29">
     <cfRule type="expression" dxfId="31" priority="39">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+      <formula>A24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
     <cfRule type="expression" dxfId="30" priority="38">
-      <formula>A32&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+      <formula>A33&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
     <cfRule type="expression" dxfId="29" priority="37">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B63 B69 B65:B67">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B64 B70 B66:B68">
     <cfRule type="expression" dxfId="28" priority="35">
+      <formula>A62&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="27" priority="34">
+      <formula>A73&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>A69&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:B58">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>A55&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>A61&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="27" priority="34">
-      <formula>A72&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>A68&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B57">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="24" priority="29">
-      <formula>A60&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="23" priority="27">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
+      <formula>A65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>A58&lt;&gt;""</formula>
+      <formula>A59&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
@@ -2823,84 +2843,84 @@
       <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="B27">
     <cfRule type="expression" dxfId="15" priority="19">
-      <formula>A26&lt;&gt;""</formula>
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B36 B38">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>A34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>A46&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>A44&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B35 B37">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>A33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>A45&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>A38&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B50">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>A51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>A52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>A37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>A52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B49">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>A46&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>A51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_todo_definition.xlsx
+++ b/db_todo_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -971,7 +971,21 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1255,8 +1269,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="38"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="37"/>
+    <tableColumn id="1" name="No." dataDxfId="40"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1550,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2001,7 +2015,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36" t="str">
-        <f t="shared" ref="I28:I31" si="5">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
+        <f t="shared" ref="I28:I32" si="5">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
         <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
@@ -2027,35 +2041,38 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="16">
         <v>0</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
       <c r="H30" s="17"/>
       <c r="I30" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -2063,201 +2080,200 @@
       <c r="H31" s="17"/>
       <c r="I31" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
-      <c r="I32" s="37" t="s">
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="I33" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="42" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D35" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F35" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H35" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="51" t="s">
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C36" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C36 &amp; "` ("</f>
         <v>CREATE TABLE `events` (</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="36" t="str">
-        <f t="shared" ref="I37" si="6">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
+      <c r="I37" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="16">
-        <v>128</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="36" t="str">
-        <f t="shared" ref="I38:I44" si="7">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I38" si="6">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E39" s="16">
+        <v>128</v>
+      </c>
       <c r="F39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <f t="shared" ref="I39:I45" si="7">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="F40" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="36" t="str">
-        <f t="shared" ref="I40:I41" si="8">IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; "COMMENT '"&amp; B40 &amp;"'," &amp; IF(A40="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
+        <f t="shared" si="7"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
       <c r="I41" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+        <f t="shared" ref="I41:I42" si="8">IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; "COMMENT '"&amp; B41 &amp;"'," &amp; IF(A41="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="16">
-        <v>32</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" si="8"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>13</v>
@@ -2269,411 +2285,411 @@
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
       <c r="I43" s="36" t="str">
-        <f t="shared" ref="I43" si="9">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" si="7"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
       <c r="B44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E44" s="16">
+        <v>32</v>
+      </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="36" t="str">
+        <f t="shared" ref="I44" si="9">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="36" t="str">
         <f t="shared" si="7"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="I45" s="37" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="I46" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="42"/>
-      <c r="D47" s="30" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="42"/>
+      <c r="D48" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E48" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F48" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G48" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H48" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="30"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B48" s="51" t="s">
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C49" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C48 &amp; "` ("</f>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C49 &amp; "` ("</f>
         <v>CREATE TABLE `calendars` (</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="16">
-        <v>128</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="36" t="str">
-        <f t="shared" ref="I50:I52" si="10">IF(A50="","","/* ") &amp; "`" &amp; C50 &amp; "` " &amp; D50 &amp; IF(E50&gt;0,"(" &amp; E50 &amp; ") "," ") &amp; IF(F50&lt;&gt;"","NOT NULL ","") &amp; IF(G50="","","DEFAULT '" &amp; G50 &amp; "' ") &amp; "COMMENT '"&amp; B50 &amp;"'," &amp; IF(A50="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I50" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B51" s="15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E51" s="16">
+        <v>128</v>
+      </c>
       <c r="F51" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
       <c r="I51" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" ref="I51:I53" si="10">IF(A51="","","/* ") &amp; "`" &amp; C51 &amp; "` " &amp; D51 &amp; IF(E51&gt;0,"(" &amp; E51 &amp; ") "," ") &amp; IF(F51&lt;&gt;"","NOT NULL ","") &amp; IF(G51="","","DEFAULT '" &amp; G51 &amp; "' ") &amp; "COMMENT '"&amp; B51 &amp;"'," &amp; IF(A51="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="22"/>
       <c r="B52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
       <c r="I52" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
-      <c r="I53" s="37" t="s">
+      <c r="B53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="22"/>
+      <c r="I54" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="42" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D56" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E56" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F56" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G56" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H56" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="51" t="s">
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C57" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C56 &amp; "` ("</f>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C57 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="16">
-        <v>128</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="36" t="str">
-        <f t="shared" ref="I58" si="11">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I58" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B59" s="15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E59" s="16">
+        <v>128</v>
+      </c>
       <c r="F59" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="36" t="str">
-        <f t="shared" ref="I59" si="12">IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
+        <f t="shared" ref="I59" si="11">IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="36" t="str">
+        <f t="shared" ref="I60" si="12">IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; "COMMENT '"&amp; B60 &amp;"'," &amp; IF(A60="",""," */")</f>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
-      <c r="I60" s="37" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="22"/>
+      <c r="I61" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D62" s="30" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D63" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E63" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F63" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="G63" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H63" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B63" s="51" t="s">
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C64" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
         <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="36" t="str">
-        <f t="shared" ref="I65" si="13">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+      <c r="I65" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="16">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="36" t="str">
-        <f t="shared" ref="I66:I71" si="14">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+        <f t="shared" ref="I66" si="13">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E67" s="16">
+        <v>64</v>
+      </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" ref="I67:I72" si="14">IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="16">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B69" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>13</v>
@@ -2685,16 +2701,16 @@
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="36" t="str">
-        <f t="shared" ref="I69" si="15">IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; "COMMENT '"&amp; B69 &amp;"'," &amp; IF(A69="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" si="14"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>13</v>
@@ -2706,221 +2722,247 @@
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I70" si="15">IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
       <c r="B71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E71" s="16">
+        <v>32</v>
+      </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
-      <c r="I72" s="37" t="s">
+      <c r="B72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="22"/>
+      <c r="I73" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B4 B20:B22 B71:B72 B60 B74:B1048576">
-    <cfRule type="expression" dxfId="36" priority="128">
+  <conditionalFormatting sqref="B1:B4 B20:B22 B72:B73 B61 B75:B1048576">
+    <cfRule type="expression" dxfId="38" priority="129">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B15 B18:B19">
-    <cfRule type="expression" dxfId="35" priority="72">
+    <cfRule type="expression" dxfId="37" priority="73">
       <formula>A13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="34" priority="62">
+    <cfRule type="expression" dxfId="36" priority="63">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="33" priority="42">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="32" priority="40">
+  <conditionalFormatting sqref="B31:B33">
+    <cfRule type="expression" dxfId="34" priority="41">
+      <formula>A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B26 B29">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>A24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>A34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="31" priority="38">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B65 B71 B67:B69">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>A63&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>A74&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="28" priority="33">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B59">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>A56&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>A62&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="25" priority="28">
+      <formula>A66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>A60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>A11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>A5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>A16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>A46&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37 B39">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>A35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>A44&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B51">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>A48&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>A55&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>A52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B26 B29">
-    <cfRule type="expression" dxfId="31" priority="39">
-      <formula>A24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>A33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:B64 B70 B66:B68">
-    <cfRule type="expression" dxfId="28" priority="35">
-      <formula>A62&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="27" priority="34">
-      <formula>A73&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>A69&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B58">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>A55&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="24" priority="29">
-      <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>A65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>A59&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>A11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B8">
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>A5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>A12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>A45&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B36 B38">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>A46&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>A44&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B50">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>A47&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>A51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>A52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>A37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
